--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8636" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9183" uniqueCount="1274">
   <si>
     <t>ЧИСЛО РЕСПОНДЕНТОВ</t>
   </si>
@@ -3196,232 +3196,649 @@
     <t>Критерий Шапиро-Уилка: stat = 0.996, p = 0.340</t>
   </si>
   <si>
+    <t>000-015%: 001 (000.2%)</t>
+  </si>
+  <si>
+    <t>015-025%: 014 (003.5%)</t>
+  </si>
+  <si>
+    <t>025-050%: 301 (075.2%)</t>
+  </si>
+  <si>
+    <t>050-075%: 059 (014.8%)</t>
+  </si>
+  <si>
+    <t>075-085%: 000 (000.0%)</t>
+  </si>
+  <si>
+    <t>025-050%: 021 (005.2%)</t>
+  </si>
+  <si>
+    <t>025-050%: 178 (044.5%)</t>
+  </si>
+  <si>
+    <t>050-075%: 143 (035.8%)</t>
+  </si>
+  <si>
+    <t>075-085%: 022 (005.5%)</t>
+  </si>
+  <si>
+    <t>085-100%: 004 (001.0%)</t>
+  </si>
+  <si>
+    <t>ИНСТИТУЦИОНАЛЬНОЕ ДОВЕРИЕ</t>
+  </si>
+  <si>
+    <t>Критерий Шапиро-Уилка: stat = 0.989, p = 0.005</t>
+  </si>
+  <si>
+    <t>000-015%: 027 (006.8%)</t>
+  </si>
+  <si>
+    <t>015-025%: 060 (015.0%)</t>
+  </si>
+  <si>
+    <t>025-050%: 235 (058.8%)</t>
+  </si>
+  <si>
+    <t>050-075%: 030 (007.5%)</t>
+  </si>
+  <si>
+    <t>000-015%: 008 (002.0%)</t>
+  </si>
+  <si>
+    <t>025-050%: 019 (004.8%)</t>
+  </si>
+  <si>
+    <t>025-050%: 167 (041.8%)</t>
+  </si>
+  <si>
+    <t>050-075%: 165 (041.2%)</t>
+  </si>
+  <si>
+    <t>075-085%: 020 (005.0%)</t>
+  </si>
+  <si>
+    <t>085-100%: 021 (005.2%)</t>
+  </si>
+  <si>
+    <t>Критерий Шапиро-Уилка: stat = 0.985, p = 0.211</t>
+  </si>
+  <si>
     <t>000-015%: 000 (000.0%)</t>
   </si>
   <si>
+    <t>025-050%: 095 (077.2%)</t>
+  </si>
+  <si>
+    <t>050-075%: 012 (009.8%)</t>
+  </si>
+  <si>
+    <t>000-015%: 008 (006.5%)</t>
+  </si>
+  <si>
+    <t>025-050%: 054 (043.9%)</t>
+  </si>
+  <si>
+    <t>075-085%: 009 (007.3%)</t>
+  </si>
+  <si>
+    <t>085-100%: 002 (001.6%)</t>
+  </si>
+  <si>
+    <t>Критерий Шапиро-Уилка: stat = 0.989, p = 0.449</t>
+  </si>
+  <si>
+    <t>000-015%: 018 (014.6%)</t>
+  </si>
+  <si>
+    <t>015-025%: 020 (016.3%)</t>
+  </si>
+  <si>
+    <t>025-050%: 067 (054.5%)</t>
+  </si>
+  <si>
+    <t>050-075%: 006 (004.9%)</t>
+  </si>
+  <si>
+    <t>025-050%: 013 (010.6%)</t>
+  </si>
+  <si>
+    <t>025-050%: 045 (036.6%)</t>
+  </si>
+  <si>
+    <t>050-075%: 039 (031.7%)</t>
+  </si>
+  <si>
+    <t>085-100%: 006 (004.9%)</t>
+  </si>
+  <si>
+    <t>Критерий Шапиро-Уилка: stat = 0.989, p = 0.244</t>
+  </si>
+  <si>
+    <t>000-015%: 001 (000.6%)</t>
+  </si>
+  <si>
+    <t>015-025%: 004 (002.6%)</t>
+  </si>
+  <si>
+    <t>025-050%: 116 (075.3%)</t>
+  </si>
+  <si>
+    <t>050-075%: 022 (014.3%)</t>
+  </si>
+  <si>
+    <t>025-050%: 007 (004.5%)</t>
+  </si>
+  <si>
+    <t>025-050%: 047 (030.5%)</t>
+  </si>
+  <si>
+    <t>050-075%: 062 (040.3%)</t>
+  </si>
+  <si>
+    <t>075-085%: 007 (004.5%)</t>
+  </si>
+  <si>
+    <t>085-100%: 015 (009.7%)</t>
+  </si>
+  <si>
+    <t>Критерий Шапиро-Уилка: stat = 0.980, p = 0.027</t>
+  </si>
+  <si>
+    <t>000-015%: 006 (003.9%)</t>
+  </si>
+  <si>
+    <t>015-025%: 029 (018.8%)</t>
+  </si>
+  <si>
+    <t>025-050%: 085 (055.2%)</t>
+  </si>
+  <si>
+    <t>050-075%: 012 (007.8%)</t>
+  </si>
+  <si>
+    <t>000-015%: 004 (002.6%)</t>
+  </si>
+  <si>
+    <t>025-050%: 010 (006.5%)</t>
+  </si>
+  <si>
+    <t>025-050%: 065 (042.2%)</t>
+  </si>
+  <si>
+    <t>050-075%: 051 (033.1%)</t>
+  </si>
+  <si>
+    <t>075-085%: 012 (007.8%)</t>
+  </si>
+  <si>
+    <t>085-100%: 012 (007.8%)</t>
+  </si>
+  <si>
+    <t>Критерий Шапиро-Уилка: stat = 0.988, p = 0.381</t>
+  </si>
+  <si>
     <t>015-025%: 000 (000.0%)</t>
   </si>
   <si>
-    <t>025-050%: 059 (014.8%)</t>
-  </si>
-  <si>
-    <t>050-075%: 301 (075.2%)</t>
-  </si>
-  <si>
-    <t>075-085%: 014 (003.5%)</t>
-  </si>
-  <si>
-    <t>085-100%: 001 (000.2%)</t>
-  </si>
-  <si>
-    <t>000-015%: 004 (001.0%)</t>
-  </si>
-  <si>
-    <t>025-050%: 143 (035.8%)</t>
-  </si>
-  <si>
-    <t>050-075%: 178 (044.5%)</t>
-  </si>
-  <si>
-    <t>075-085%: 021 (005.2%)</t>
-  </si>
-  <si>
-    <t>085-100%: 011 (002.8%)</t>
-  </si>
-  <si>
-    <t>ИНСТИТУЦИОНАЛЬНОЕ ДОВЕРИЕ</t>
-  </si>
-  <si>
-    <t>Критерий Шапиро-Уилка: stat = 0.989, p = 0.005</t>
-  </si>
-  <si>
-    <t>025-050%: 030 (007.5%)</t>
-  </si>
-  <si>
-    <t>050-075%: 235 (058.8%)</t>
-  </si>
-  <si>
-    <t>075-085%: 060 (015.0%)</t>
-  </si>
-  <si>
-    <t>085-100%: 027 (006.8%)</t>
-  </si>
-  <si>
-    <t>000-015%: 021 (005.2%)</t>
-  </si>
-  <si>
-    <t>025-050%: 020 (005.0%)</t>
-  </si>
-  <si>
-    <t>025-050%: 165 (041.2%)</t>
-  </si>
-  <si>
-    <t>050-075%: 167 (041.8%)</t>
-  </si>
-  <si>
-    <t>075-085%: 019 (004.8%)</t>
-  </si>
-  <si>
-    <t>085-100%: 008 (002.0%)</t>
-  </si>
-  <si>
-    <t>Критерий Шапиро-Уилка: stat = 0.985, p = 0.211</t>
-  </si>
-  <si>
-    <t>025-050%: 012 (009.8%)</t>
-  </si>
-  <si>
-    <t>050-075%: 095 (077.2%)</t>
-  </si>
-  <si>
-    <t>075-085%: 010 (008.1%)</t>
-  </si>
-  <si>
-    <t>000-015%: 002 (001.6%)</t>
-  </si>
-  <si>
-    <t>025-050%: 041 (033.3%)</t>
-  </si>
-  <si>
-    <t>050-075%: 054 (043.9%)</t>
-  </si>
-  <si>
-    <t>075-085%: 009 (007.3%)</t>
-  </si>
-  <si>
-    <t>085-100%: 008 (006.5%)</t>
-  </si>
-  <si>
-    <t>Критерий Шапиро-Уилка: stat = 0.989, p = 0.449</t>
-  </si>
-  <si>
-    <t>025-050%: 006 (004.9%)</t>
-  </si>
-  <si>
-    <t>050-075%: 067 (054.5%)</t>
-  </si>
-  <si>
-    <t>075-085%: 020 (016.3%)</t>
-  </si>
-  <si>
-    <t>085-100%: 018 (014.6%)</t>
-  </si>
-  <si>
-    <t>000-015%: 006 (004.9%)</t>
-  </si>
-  <si>
-    <t>025-050%: 004 (003.3%)</t>
-  </si>
-  <si>
-    <t>025-050%: 039 (031.7%)</t>
-  </si>
-  <si>
-    <t>075-085%: 013 (010.6%)</t>
-  </si>
-  <si>
-    <t>085-100%: 005 (004.1%)</t>
-  </si>
-  <si>
-    <t>Критерий Шапиро-Уилка: stat = 0.989, p = 0.244</t>
-  </si>
-  <si>
-    <t>025-050%: 022 (014.3%)</t>
-  </si>
-  <si>
-    <t>050-075%: 116 (075.3%)</t>
-  </si>
-  <si>
-    <t>075-085%: 004 (002.6%)</t>
-  </si>
-  <si>
-    <t>085-100%: 001 (000.6%)</t>
-  </si>
-  <si>
-    <t>000-015%: 015 (009.7%)</t>
-  </si>
-  <si>
-    <t>025-050%: 007 (004.5%)</t>
-  </si>
-  <si>
-    <t>025-050%: 062 (040.3%)</t>
-  </si>
-  <si>
-    <t>050-075%: 047 (030.5%)</t>
-  </si>
-  <si>
-    <t>075-085%: 007 (004.5%)</t>
-  </si>
-  <si>
-    <t>Критерий Шапиро-Уилка: stat = 0.980, p = 0.027</t>
-  </si>
-  <si>
-    <t>025-050%: 012 (007.8%)</t>
-  </si>
-  <si>
-    <t>050-075%: 085 (055.2%)</t>
-  </si>
-  <si>
-    <t>075-085%: 029 (018.8%)</t>
-  </si>
-  <si>
-    <t>085-100%: 006 (003.9%)</t>
-  </si>
-  <si>
-    <t>000-015%: 012 (007.8%)</t>
-  </si>
-  <si>
-    <t>025-050%: 051 (033.1%)</t>
-  </si>
-  <si>
-    <t>050-075%: 065 (042.2%)</t>
-  </si>
-  <si>
-    <t>075-085%: 010 (006.5%)</t>
-  </si>
-  <si>
-    <t>Критерий Шапиро-Уилка: stat = 0.988, p = 0.381</t>
-  </si>
-  <si>
-    <t>025-050%: 025 (020.3%)</t>
-  </si>
-  <si>
-    <t>050-075%: 090 (073.2%)</t>
-  </si>
-  <si>
-    <t>075-085%: 000 (000.0%)</t>
-  </si>
-  <si>
-    <t>025-050%: 003 (002.4%)</t>
-  </si>
-  <si>
-    <t>025-050%: 033 (026.8%)</t>
-  </si>
-  <si>
-    <t>050-075%: 064 (052.0%)</t>
-  </si>
-  <si>
-    <t>075-085%: 011 (008.9%)</t>
-  </si>
-  <si>
-    <t>085-100%: 010 (008.1%)</t>
+    <t>025-050%: 090 (073.2%)</t>
+  </si>
+  <si>
+    <t>050-075%: 025 (020.3%)</t>
+  </si>
+  <si>
+    <t>000-015%: 010 (008.1%)</t>
+  </si>
+  <si>
+    <t>025-050%: 011 (008.9%)</t>
+  </si>
+  <si>
+    <t>025-050%: 064 (052.0%)</t>
+  </si>
+  <si>
+    <t>050-075%: 033 (026.8%)</t>
   </si>
   <si>
     <t>Критерий Шапиро-Уилка: stat = 0.975, p = 0.022</t>
   </si>
   <si>
-    <t>050-075%: 083 (067.5%)</t>
-  </si>
-  <si>
-    <t>085-100%: 003 (002.4%)</t>
-  </si>
-  <si>
-    <t>050-075%: 058 (047.2%)</t>
-  </si>
-  <si>
-    <t>075-085%: 007 (005.7%)</t>
-  </si>
-  <si>
-    <t>085-100%: 007 (005.7%)</t>
+    <t>000-015%: 003 (002.4%)</t>
+  </si>
+  <si>
+    <t>015-025%: 011 (008.9%)</t>
+  </si>
+  <si>
+    <t>025-050%: 083 (067.5%)</t>
+  </si>
+  <si>
+    <t>000-015%: 007 (005.7%)</t>
+  </si>
+  <si>
+    <t>025-050%: 007 (005.7%)</t>
+  </si>
+  <si>
+    <t>025-050%: 058 (047.2%)</t>
+  </si>
+  <si>
+    <t>075-085%: 006 (004.9%)</t>
+  </si>
+  <si>
+    <t>ФАКТОРНЫЙ АНАЛИЗ</t>
+  </si>
+  <si>
+    <t>Фактор #1</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуются в тех источниках, которые пользуются популярностью людей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости по телевидению, так как считаю, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости в социальных сетях, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости в мессенджерах, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости в интернете в целом, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди младше 17 очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 17-20 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 21-30 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 31-40 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 41-50 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 51-60 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Процент фейковых новостей среди всех новостей всегда примерно один и тот же (даже если количество новостей меняется)</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было меньше, чем сейчас</t>
+  </si>
+  <si>
+    <t>Из-за того, что сейчас много фейковых новостей, я стараюсь в целом меньше интересоваться новостями</t>
+  </si>
+  <si>
+    <t>Фейковые новости вызывают у меня раздражение</t>
+  </si>
+  <si>
+    <t>Фейковые новости меня расстраивают</t>
+  </si>
+  <si>
+    <t>У меня нейтральное отношение к теме фейковых новостей/меня не волнует тема фейковых новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь с юмором относиться к тому, что существуют фейковые новости</t>
+  </si>
+  <si>
+    <t>Я легко отделяю достоверные новости от фейковых</t>
+  </si>
+  <si>
+    <t>Фейковые новости волнуют меня только тогда, когда это касается меня</t>
+  </si>
+  <si>
+    <t>Фейковые новости несут значительную опасность для общества</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей полезно для развития критического мышления, навыка анализировать информацию</t>
+  </si>
+  <si>
+    <t>Исправить ситуацию наличия фейковых новостей невозможно, нужно просто изменить своё отношение к этой проблеме, чтобы она не влияла на состояние человека</t>
+  </si>
+  <si>
+    <t>В моей жизни бывают ситуации, когда мне нужно отличить достоверную новость от фейковой</t>
+  </si>
+  <si>
+    <t>Чтение фейковых новостей – это вопрос личного выбора каждого человека</t>
+  </si>
+  <si>
+    <t>Фейковые новости – это те же слухи, только в цифровом формате</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом случайной ошибки журналистов, неправильной трактовки событий</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом плохих навыков, некомпетентности журналистов</t>
+  </si>
+  <si>
+    <t>Фейковые новости являются одним из важных инструментов экономики</t>
+  </si>
+  <si>
+    <t>Развитие рыночной экономики и капиталистических отношений в обществе способствует увеличению количества фейковых новостей</t>
+  </si>
+  <si>
+    <t>Существование фейковых новостей – это привычное положение вещей для нашей страны, которое вытекает из нашей истории</t>
+  </si>
+  <si>
+    <t>Существование фейковых новостей естественно для человеческого общества, объясняется природой человека</t>
+  </si>
+  <si>
+    <t>Без фейков не будут существовать многие жанры новостей</t>
+  </si>
+  <si>
+    <t>Если не будут использоваться фейковые новости как элемент управления людьми, в обществе будет хаос</t>
+  </si>
+  <si>
+    <t>Фейковые новости рассылают всем люди с низкой социальной ответственностью, которые не проверяют информацию и не думают о последствиях своих действий</t>
+  </si>
+  <si>
+    <t>С фейковыми новостями нужно бороться</t>
+  </si>
+  <si>
+    <t>Нужно ввести контроль за распространением фейковых новостей со стороны независимых профессиональных организаций</t>
+  </si>
+  <si>
+    <t>Нужно усилить контроль за распространением фейковых новостей со стороны государства</t>
+  </si>
+  <si>
+    <t>Нужно дать больше свободы журналистам, чтобы они имели больше возможностей проверять информацию, общаться с очевидцами, бывать на месте событий, узнавать правду</t>
+  </si>
+  <si>
+    <t>Нет способов глобально/масштабно влиять на ситуацию наличия фейковых новостей</t>
+  </si>
+  <si>
+    <t>Увеличение количества фейковых новостей связано с развитием интернета, социальных сетей</t>
+  </si>
+  <si>
+    <t>Если не уследишь, люди воспользуются твоим преимуществом</t>
+  </si>
+  <si>
+    <t>Человек по своей природе склонен к сотрудничеству</t>
+  </si>
+  <si>
+    <t>Мне кажется, что никаким новостям нельзя доверять, пока не проверишь</t>
+  </si>
+  <si>
+    <t>Я изначально скорее доверяю новостной информации</t>
+  </si>
+  <si>
+    <t>Существуют конкретные объективные способы, которые позволяют мне отличить достоверную новость от фейковой</t>
+  </si>
+  <si>
+    <t>Для оценки достоверности новости я проверяю новость в нескольких источниках</t>
+  </si>
+  <si>
+    <t>Репутация автора/ведущего новости является для меня критерием определения достоверности новости</t>
+  </si>
+  <si>
+    <t>Эмоциональное преподнесение новости вызывает у меня сомнения в достоверности этой новости</t>
+  </si>
+  <si>
+    <t>Я перехожу по ссылкам внутри новости, сверяю первичную информацию с более развернутой информацией по ссылке</t>
+  </si>
+  <si>
+    <t>Присутствие новости в популярных источниках информации является для меня одним из критериев достоверности</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнения друзей/близких по поводу новости, чтобы потом сформировать свое собственное мнение</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнение людей, которые как-то напрямую связаны с событиями из новостей</t>
+  </si>
+  <si>
+    <t>Я обращаюсь к экспертам/информации от экспертов в какой-то области для того, чтобы понять, достоверная ли новость</t>
+  </si>
+  <si>
+    <t>Я редко перепроверяю новость</t>
+  </si>
+  <si>
+    <t>Одним из важных критериев для меня является то, какими словами написана новость, насколько грамотная речь</t>
+  </si>
+  <si>
+    <t>Для оценки достоверности новости я заглядываю в комментарии к новости от других людей</t>
+  </si>
+  <si>
+    <t>У меня есть конкретный перечень источников новостей, которым я доверяю</t>
+  </si>
+  <si>
+    <t>Я не смотрю новости из тех источников, которые не входят в перечень источников, которым я уже доверяю</t>
+  </si>
+  <si>
+    <t>Наличия ярких, броских, завлекающих заголовков у новостей вызывает у меня скорее сомнение в достоверности этой новости</t>
+  </si>
+  <si>
+    <t>Большое количество рекламы на новостных сайтах вызывают у меня сомнения по поводу достоверности новостей на нем</t>
+  </si>
+  <si>
+    <t>Качество внешнего оформления новостного источника является для меня важным параметром оценки достоверности новостей из этого источника</t>
+  </si>
+  <si>
+    <t>Обещаниям родителей обычно можно верить</t>
+  </si>
+  <si>
+    <t>Судебная система -это место, где к каждому проявляется беспристрастное отношение</t>
+  </si>
+  <si>
+    <t>Будущее кажется многообещающим</t>
+  </si>
+  <si>
+    <t>Большинство идеалистов искренни и часто используют на практике то, что исповедуют</t>
+  </si>
+  <si>
+    <t>Большинство людей честно отвечают на опросы общественного мнения</t>
+  </si>
+  <si>
+    <t>belief_mean</t>
+  </si>
+  <si>
+    <t>social_mean</t>
+  </si>
+  <si>
+    <t>inst_mean</t>
+  </si>
+  <si>
+    <t>Фактор #2</t>
+  </si>
+  <si>
+    <t>Насколько часто вы получаете новостную информацию?</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости на новостных сайтах, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей будет всегда примерно одинаковым</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было больше, чем сейчас</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей в будущем будет уменьшаться</t>
+  </si>
+  <si>
+    <t>В будущем будет уменьшаться количество фейковых новостей, так как люди лучше освоятся с интернетом и их будет тяжелее обмануть</t>
+  </si>
+  <si>
+    <t>Раньше было больше фейковых новостей, так как у людей было меньше возможностей анализировать, проверять информацию</t>
+  </si>
+  <si>
+    <t>Когда-нибудь в будущем от фейковых новостей смогут избавиться</t>
+  </si>
+  <si>
+    <t>В российском обществе существует спрос на фейковые новости, поэтому их так много</t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуют и распространяют не очень умные люди</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают те люди, которые не смогли нигде себя профессионально проявить</t>
+  </si>
+  <si>
+    <t>Людям, которые создают фейковые новости, нечем заняться, у них скучная жизнь</t>
+  </si>
+  <si>
+    <t>Создатели фейковых новостей – это обиженные кем-то люди, которые вымещают зло на окружающих людей с помощью фейков</t>
+  </si>
+  <si>
+    <t>Никто не намерен брать на себя ответственность за то что с тобой случится, хотя видят к чему ты идешь</t>
+  </si>
+  <si>
+    <t>Меня привлекают яркие, необычные заголовки у новостей и скорее вызывают доверие</t>
+  </si>
+  <si>
+    <t>Большинство избранных официальных лиц искренни в своих предвыборных обещаниях</t>
+  </si>
+  <si>
+    <t>Результаты многих главных национальных спортивных состязаний тем или иным образом предопределены заранее</t>
+  </si>
+  <si>
+    <t>Можно считать, что большинство людей сделают то, что говорят</t>
+  </si>
+  <si>
+    <t>Большинство продавцов честны в описании продаваемого товара</t>
+  </si>
+  <si>
+    <t>Большинство специалистов по ремонту не будут завышать цену на услуги, обнаружив Вашу некомпетентность</t>
+  </si>
+  <si>
+    <t>Большая доля обращений в страховые компании по поводу выплаты страховки по несчастным случаям является ложной</t>
+  </si>
+  <si>
+    <t>Фактор #3</t>
+  </si>
+  <si>
+    <t>На федеральных каналах новости часто подаются с определенной позиции для формирования мнения населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На новостных передачах по федеральным каналам часто не договаривают факты </t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди старше 60 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент фейковых новостей</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент искажения новостей, частичной недостоверности</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей в будущем будет увеличиваться</t>
+  </si>
+  <si>
+    <t>Недостоверных новостей будет становиться все больше, так как еще больше будет развиваться интернет, социальные сети</t>
+  </si>
+  <si>
+    <t>Фейковые новости будут становиться все более сложными, качественными и их будет тяжелее определять</t>
+  </si>
+  <si>
+    <t>Фейковые новости были и будут существовать всегда</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей касается всех людей, потому что это может стать проблемой для каждого человека</t>
+  </si>
+  <si>
+    <t>Чем меньше человек образован, меньше знает, тем больше он будет интересоваться фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Фейковые новости – это злонамеренное искажение фактов, передача ложной информации в новостях</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей неизбежно, так как это важный инструмент политики</t>
+  </si>
+  <si>
+    <t>Фейковые новости необходимы для того, чтобы управлять и манипулировать массами людей</t>
+  </si>
+  <si>
+    <t>Фейковые новости распространяют люди с низкими моральными принципами</t>
+  </si>
+  <si>
+    <t>Во главе создания и публикации фейковых новостей стоят профессионалы своего дела, умные люди</t>
+  </si>
+  <si>
+    <t>За публикацией и распространением фейковых новостей стоят представители власти</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые хотят привлечь к себе внимание, продвинуть себя, получить популярность</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся иметь больше власти, воздействовать на людей</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся легко заработать деньги</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают для того, чтобы скрыть ужасную правду о каких-то вещах или событиях в нашей стране, так как это может спровоцировать реакцию людей</t>
+  </si>
+  <si>
+    <t>Основной способ повлиять на ситуацию наличия фейковых новостей – улучшать систему образования, заниматься просвещением людей</t>
+  </si>
+  <si>
+    <t>Если бы люди не ленились проверять информацию, то было бы меньше проблем с фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Основной способ уменьшить количество фейковых новостей– влиять на своих детей, воспитывать их нравственно и обучать критическому мышлению</t>
+  </si>
+  <si>
+    <t>Публикация фейковых новостей связана с системой мотивации журналистов (необходимость «выполнить план», конкуренция, необходимость быстро публиковать новости)</t>
+  </si>
+  <si>
+    <t>Распространение фейковых новостей является способом информационной войны</t>
+  </si>
+  <si>
+    <t>Некоторые говорят, что большинству людей можно доверять. Другие говорят, что следует быть очень осторожным когда имеешь дело с людьми. Что Вы думаете об этом?</t>
+  </si>
+  <si>
+    <t>Можете ли Вы сказать, что большинство людей более склонны помогать другим или более склонны заботиться только о себе?</t>
+  </si>
+  <si>
+    <t>Для меня важным критерием является репутация и авторитетность источника новостей</t>
+  </si>
+  <si>
+    <t>Для определения достоверности новости я стремлюсь перейти на первоисточник, официальный источник</t>
+  </si>
+  <si>
+    <t>Я опираюсь на своё собственное представление о ситуации, на то, что я уже знаю об этом, когда я определяю достоверность очередной новости</t>
+  </si>
+  <si>
+    <t>Нейтральность новости, возможность отличить позицию автора от самой новости является важным критерием достоверности</t>
+  </si>
+  <si>
+    <t>Важным критерием достоверности новости является наличие доказательств (ссылок, цитат, фото/видео доказательств)</t>
+  </si>
+  <si>
+    <t>Полнота раскрытия темы в новости является для меня важным критерием достоверности</t>
+  </si>
+  <si>
+    <t>Я интуитивно понимаю, опираясь на здравый смысл, является ли данная новость фейковой или она достоверна</t>
+  </si>
+  <si>
+    <t>В обществе возрастает лицемерие</t>
+  </si>
+  <si>
+    <t>Большинство людей ужаснулись бы, если бы узнали, как искажаются новости, которые публика слышит и видит</t>
+  </si>
+  <si>
+    <t>Самое надежное – это верить, что вопреки тому, что говорят люди, они прежде всего заинтересованы в своем собственном благе</t>
+  </si>
+  <si>
+    <t>Даже имея информацию из газет, радио и телевидения, всё равно очень трудно получить объективное представление о событиях в обществе</t>
+  </si>
+  <si>
+    <t>Если бы мы на самом деле знали о том, что происходит в международной политике, то общество имело бы причины быть более испуганным, чем оно является сейчас</t>
+  </si>
+  <si>
+    <t>В наше конкурентное время каждый должен быть начеку, иначе кто-нибудь может использовать его в своих целях</t>
   </si>
 </sst>
 </file>
@@ -3769,7 +4186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1154"/>
+  <dimension ref="A1:C1293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12454,7 +12871,7 @@
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
@@ -12464,42 +12881,42 @@
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133" t="s">
-        <v>1065</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134" t="s">
-        <v>1022</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
@@ -12509,32 +12926,32 @@
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147" t="s">
-        <v>1075</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
@@ -12544,32 +12961,727 @@
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154" t="s">
-        <v>1081</v>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1">
+      <c r="A1155" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1">
+      <c r="A1156" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1">
+      <c r="A1157" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1">
+      <c r="A1158" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1">
+      <c r="A1159" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1">
+      <c r="A1160" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1">
+      <c r="A1161" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1">
+      <c r="A1162" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1">
+      <c r="A1163" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1">
+      <c r="A1164" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1">
+      <c r="A1165" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1">
+      <c r="A1166" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1">
+      <c r="A1167" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1">
+      <c r="A1168" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1">
+      <c r="A1169" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1">
+      <c r="A1170" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1">
+      <c r="A1171" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1">
+      <c r="A1172" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1">
+      <c r="A1173" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1">
+      <c r="A1174" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1">
+      <c r="A1175" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1">
+      <c r="A1176" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1">
+      <c r="A1177" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1">
+      <c r="A1178" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1">
+      <c r="A1179" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1">
+      <c r="A1180" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1">
+      <c r="A1181" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1">
+      <c r="A1182" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1">
+      <c r="A1183" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1">
+      <c r="A1184" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1">
+      <c r="A1185" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1">
+      <c r="A1186" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1">
+      <c r="A1187" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1">
+      <c r="A1188" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1">
+      <c r="A1189" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1">
+      <c r="A1190" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1">
+      <c r="A1192" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1">
+      <c r="A1193" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1">
+      <c r="A1194" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1">
+      <c r="A1195" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1">
+      <c r="A1196" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1">
+      <c r="A1197" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1">
+      <c r="A1199" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1">
+      <c r="A1200" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1">
+      <c r="A1202" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1">
+      <c r="A1203" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1">
+      <c r="A1204" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1">
+      <c r="A1205" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1">
+      <c r="A1206" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1">
+      <c r="A1207" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1">
+      <c r="A1208" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1">
+      <c r="A1209" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1">
+      <c r="A1210" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1">
+      <c r="A1211" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1">
+      <c r="A1212" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1">
+      <c r="A1213" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1">
+      <c r="A1214" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1">
+      <c r="A1215" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1">
+      <c r="A1216" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1">
+      <c r="A1217" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1">
+      <c r="A1218" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1">
+      <c r="A1220" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1">
+      <c r="A1221" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1">
+      <c r="A1222" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1">
+      <c r="A1223" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1">
+      <c r="A1224" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1">
+      <c r="A1225" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1">
+      <c r="A1226" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1">
+      <c r="A1227" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1">
+      <c r="A1228" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1">
+      <c r="A1231" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1">
+      <c r="A1232" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1">
+      <c r="A1233" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1">
+      <c r="A1236" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1">
+      <c r="A1237" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1">
+      <c r="A1238" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1">
+      <c r="A1239" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1">
+      <c r="A1240" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1">
+      <c r="A1241" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1">
+      <c r="A1242" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1">
+      <c r="A1243" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1">
+      <c r="A1244" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1">
+      <c r="A1245" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1">
+      <c r="A1246" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1">
+      <c r="A1247" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1">
+      <c r="A1248" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1">
+      <c r="A1249" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1">
+      <c r="A1250" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1">
+      <c r="A1252" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1">
+      <c r="A1253" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1">
+      <c r="A1255" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1">
+      <c r="A1256" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1">
+      <c r="A1257" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1">
+      <c r="A1258" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1">
+      <c r="A1259" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1">
+      <c r="A1260" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1">
+      <c r="A1262" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1">
+      <c r="A1263" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1">
+      <c r="A1264" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1">
+      <c r="A1277" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1">
+      <c r="A1281" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1">
+      <c r="A1282" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1">
+      <c r="A1283" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1">
+      <c r="A1285" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1">
+      <c r="A1286" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1">
+      <c r="A1287" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1">
+      <c r="A1288" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1">
+      <c r="A1289" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1">
+      <c r="A1290" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1">
+      <c r="A1291" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1">
+      <c r="A1292" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1">
+      <c r="A1293" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -12579,7 +13691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1150"/>
+  <dimension ref="A1:C1286"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21209,7 +22321,7 @@
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
@@ -21219,12 +22331,12 @@
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122" t="s">
-        <v>1059</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
@@ -21239,7 +22351,7 @@
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126" t="s">
-        <v>1085</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
@@ -21254,7 +22366,7 @@
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
@@ -21264,32 +22376,32 @@
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132" t="s">
-        <v>1088</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
@@ -21299,12 +22411,12 @@
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" t="s">
-        <v>1059</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139" t="s">
-        <v>1060</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
@@ -21319,12 +22431,12 @@
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142" t="s">
-        <v>1094</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143" t="s">
-        <v>1095</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
@@ -21334,32 +22446,712 @@
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145" t="s">
-        <v>1096</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148" t="s">
-        <v>1056</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149" t="s">
-        <v>1099</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" t="s">
-        <v>1100</v>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1">
+      <c r="A1151" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1">
+      <c r="A1152" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1">
+      <c r="A1153" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1">
+      <c r="A1154" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1">
+      <c r="A1155" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1">
+      <c r="A1156" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1">
+      <c r="A1157" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1">
+      <c r="A1158" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1">
+      <c r="A1159" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1">
+      <c r="A1160" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1">
+      <c r="A1161" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1">
+      <c r="A1162" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1">
+      <c r="A1163" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1">
+      <c r="A1164" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1">
+      <c r="A1165" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1">
+      <c r="A1166" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1">
+      <c r="A1167" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1">
+      <c r="A1168" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1">
+      <c r="A1169" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1">
+      <c r="A1170" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1">
+      <c r="A1171" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1">
+      <c r="A1172" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1">
+      <c r="A1173" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1">
+      <c r="A1174" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1">
+      <c r="A1175" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1">
+      <c r="A1176" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1">
+      <c r="A1177" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1">
+      <c r="A1178" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1">
+      <c r="A1179" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1">
+      <c r="A1180" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1">
+      <c r="A1181" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1">
+      <c r="A1182" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1">
+      <c r="A1183" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1">
+      <c r="A1184" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1">
+      <c r="A1185" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1">
+      <c r="A1186" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1">
+      <c r="A1187" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1">
+      <c r="A1188" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1">
+      <c r="A1189" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1">
+      <c r="A1190" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1">
+      <c r="A1192" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1">
+      <c r="A1193" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1">
+      <c r="A1194" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1">
+      <c r="A1195" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1">
+      <c r="A1196" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1">
+      <c r="A1197" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1">
+      <c r="A1199" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1">
+      <c r="A1200" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1">
+      <c r="A1202" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1">
+      <c r="A1203" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1">
+      <c r="A1204" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1">
+      <c r="A1205" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1">
+      <c r="A1206" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1">
+      <c r="A1207" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1">
+      <c r="A1208" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1">
+      <c r="A1209" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1">
+      <c r="A1210" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1">
+      <c r="A1211" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1">
+      <c r="A1212" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1">
+      <c r="A1213" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1">
+      <c r="A1214" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1">
+      <c r="A1215" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1">
+      <c r="A1216" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1">
+      <c r="A1217" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1">
+      <c r="A1218" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1">
+      <c r="A1220" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1">
+      <c r="A1221" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1">
+      <c r="A1222" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1">
+      <c r="A1223" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1">
+      <c r="A1224" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1">
+      <c r="A1225" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1">
+      <c r="A1226" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1">
+      <c r="A1227" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1">
+      <c r="A1228" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1">
+      <c r="A1231" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1">
+      <c r="A1232" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1">
+      <c r="A1233" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1">
+      <c r="A1236" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1">
+      <c r="A1237" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1">
+      <c r="A1238" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1">
+      <c r="A1239" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1">
+      <c r="A1240" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1">
+      <c r="A1241" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1">
+      <c r="A1242" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1">
+      <c r="A1243" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1">
+      <c r="A1244" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1">
+      <c r="A1245" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1">
+      <c r="A1246" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1">
+      <c r="A1247" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1">
+      <c r="A1248" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1">
+      <c r="A1249" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1">
+      <c r="A1250" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1">
+      <c r="A1252" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1">
+      <c r="A1253" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1">
+      <c r="A1255" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1">
+      <c r="A1256" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1">
+      <c r="A1257" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1">
+      <c r="A1258" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1">
+      <c r="A1259" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1">
+      <c r="A1260" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1">
+      <c r="A1262" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1">
+      <c r="A1263" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1">
+      <c r="A1264" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1">
+      <c r="A1277" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1">
+      <c r="A1281" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1">
+      <c r="A1282" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1">
+      <c r="A1283" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1">
+      <c r="A1285" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1">
+      <c r="A1286" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -21369,7 +23161,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1150"/>
+  <dimension ref="A1:C1286"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29999,7 +31791,7 @@
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
@@ -30009,32 +31801,32 @@
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122" t="s">
-        <v>1059</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123" t="s">
-        <v>1060</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126" t="s">
-        <v>1104</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127" t="s">
-        <v>1105</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
@@ -30044,42 +31836,42 @@
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
@@ -30089,32 +31881,32 @@
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" t="s">
-        <v>1059</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139" t="s">
-        <v>1060</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142" t="s">
-        <v>1114</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143" t="s">
-        <v>1115</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
@@ -30124,32 +31916,712 @@
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" t="s">
-        <v>1046</v>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1">
+      <c r="A1151" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1">
+      <c r="A1152" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1">
+      <c r="A1153" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1">
+      <c r="A1154" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1">
+      <c r="A1155" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1">
+      <c r="A1156" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1">
+      <c r="A1157" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1">
+      <c r="A1158" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1">
+      <c r="A1159" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1">
+      <c r="A1160" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1">
+      <c r="A1161" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1">
+      <c r="A1162" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1">
+      <c r="A1163" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1">
+      <c r="A1164" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1">
+      <c r="A1165" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1">
+      <c r="A1166" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1">
+      <c r="A1167" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1">
+      <c r="A1168" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1">
+      <c r="A1169" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1">
+      <c r="A1170" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1">
+      <c r="A1171" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1">
+      <c r="A1172" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1">
+      <c r="A1173" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1">
+      <c r="A1174" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1">
+      <c r="A1175" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1">
+      <c r="A1176" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1">
+      <c r="A1177" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1">
+      <c r="A1178" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1">
+      <c r="A1179" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1">
+      <c r="A1180" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1">
+      <c r="A1181" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1">
+      <c r="A1182" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1">
+      <c r="A1183" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1">
+      <c r="A1184" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1">
+      <c r="A1185" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1">
+      <c r="A1186" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1">
+      <c r="A1187" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1">
+      <c r="A1188" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1">
+      <c r="A1189" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1">
+      <c r="A1190" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1">
+      <c r="A1192" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1">
+      <c r="A1193" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1">
+      <c r="A1194" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1">
+      <c r="A1195" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1">
+      <c r="A1196" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1">
+      <c r="A1197" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1">
+      <c r="A1199" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1">
+      <c r="A1200" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1">
+      <c r="A1202" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1">
+      <c r="A1203" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1">
+      <c r="A1204" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1">
+      <c r="A1205" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1">
+      <c r="A1206" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1">
+      <c r="A1207" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1">
+      <c r="A1208" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1">
+      <c r="A1209" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1">
+      <c r="A1210" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1">
+      <c r="A1211" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1">
+      <c r="A1212" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1">
+      <c r="A1213" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1">
+      <c r="A1214" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1">
+      <c r="A1215" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1">
+      <c r="A1216" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1">
+      <c r="A1217" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1">
+      <c r="A1218" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1">
+      <c r="A1220" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1">
+      <c r="A1221" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1">
+      <c r="A1222" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1">
+      <c r="A1223" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1">
+      <c r="A1224" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1">
+      <c r="A1225" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1">
+      <c r="A1226" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1">
+      <c r="A1227" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1">
+      <c r="A1228" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1">
+      <c r="A1231" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1">
+      <c r="A1232" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1">
+      <c r="A1233" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1">
+      <c r="A1236" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1">
+      <c r="A1237" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1">
+      <c r="A1238" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1">
+      <c r="A1239" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1">
+      <c r="A1240" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1">
+      <c r="A1241" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1">
+      <c r="A1242" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1">
+      <c r="A1243" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1">
+      <c r="A1244" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1">
+      <c r="A1245" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1">
+      <c r="A1246" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1">
+      <c r="A1247" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1">
+      <c r="A1248" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1">
+      <c r="A1249" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1">
+      <c r="A1250" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1">
+      <c r="A1252" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1">
+      <c r="A1253" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1">
+      <c r="A1255" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1">
+      <c r="A1256" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1">
+      <c r="A1257" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1">
+      <c r="A1258" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1">
+      <c r="A1259" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1">
+      <c r="A1260" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1">
+      <c r="A1262" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1">
+      <c r="A1263" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1">
+      <c r="A1264" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1">
+      <c r="A1277" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1">
+      <c r="A1281" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1">
+      <c r="A1282" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1">
+      <c r="A1283" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1">
+      <c r="A1285" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1">
+      <c r="A1286" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -30159,7 +32631,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1150"/>
+  <dimension ref="A1:C1286"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38789,7 +41261,7 @@
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
@@ -38799,12 +41271,12 @@
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122" t="s">
-        <v>1059</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123" t="s">
-        <v>1060</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
@@ -38819,7 +41291,7 @@
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126" t="s">
-        <v>1123</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
@@ -38834,7 +41306,7 @@
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129" t="s">
-        <v>1086</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
@@ -38854,22 +41326,22 @@
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133" t="s">
-        <v>1127</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134" t="s">
-        <v>1128</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
@@ -38879,32 +41351,32 @@
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140" t="s">
-        <v>1083</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141" t="s">
-        <v>1130</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142" t="s">
-        <v>1127</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143" t="s">
-        <v>1131</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
@@ -38914,32 +41386,712 @@
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145" t="s">
-        <v>1096</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146" t="s">
-        <v>1092</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147" t="s">
-        <v>1098</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148" t="s">
-        <v>1132</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" t="s">
-        <v>1134</v>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1">
+      <c r="A1151" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1">
+      <c r="A1152" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1">
+      <c r="A1153" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1">
+      <c r="A1154" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1">
+      <c r="A1155" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1">
+      <c r="A1156" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1">
+      <c r="A1157" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1">
+      <c r="A1158" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1">
+      <c r="A1159" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1">
+      <c r="A1160" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1">
+      <c r="A1161" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1">
+      <c r="A1162" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1">
+      <c r="A1163" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1">
+      <c r="A1164" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1">
+      <c r="A1165" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1">
+      <c r="A1166" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1">
+      <c r="A1167" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1">
+      <c r="A1168" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1">
+      <c r="A1169" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1">
+      <c r="A1170" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1">
+      <c r="A1171" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1">
+      <c r="A1172" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1">
+      <c r="A1173" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1">
+      <c r="A1174" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1">
+      <c r="A1175" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1">
+      <c r="A1176" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1">
+      <c r="A1177" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1">
+      <c r="A1178" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1">
+      <c r="A1179" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1">
+      <c r="A1180" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1">
+      <c r="A1181" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1">
+      <c r="A1182" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1">
+      <c r="A1183" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1">
+      <c r="A1184" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1">
+      <c r="A1185" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1">
+      <c r="A1186" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1">
+      <c r="A1187" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1">
+      <c r="A1188" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1">
+      <c r="A1189" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1">
+      <c r="A1190" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1">
+      <c r="A1192" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1">
+      <c r="A1193" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1">
+      <c r="A1194" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1">
+      <c r="A1195" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1">
+      <c r="A1196" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1">
+      <c r="A1197" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1">
+      <c r="A1199" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1">
+      <c r="A1200" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1">
+      <c r="A1202" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1">
+      <c r="A1203" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1">
+      <c r="A1204" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1">
+      <c r="A1205" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1">
+      <c r="A1206" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1">
+      <c r="A1207" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1">
+      <c r="A1208" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1">
+      <c r="A1209" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1">
+      <c r="A1210" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1">
+      <c r="A1211" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1">
+      <c r="A1212" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1">
+      <c r="A1213" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1">
+      <c r="A1214" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1">
+      <c r="A1215" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1">
+      <c r="A1216" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1">
+      <c r="A1217" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1">
+      <c r="A1218" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1">
+      <c r="A1220" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1">
+      <c r="A1221" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1">
+      <c r="A1222" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1">
+      <c r="A1223" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1">
+      <c r="A1224" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1">
+      <c r="A1225" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1">
+      <c r="A1226" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1">
+      <c r="A1227" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1">
+      <c r="A1228" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1">
+      <c r="A1231" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1">
+      <c r="A1232" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1">
+      <c r="A1233" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1">
+      <c r="A1236" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1">
+      <c r="A1237" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1">
+      <c r="A1238" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1">
+      <c r="A1239" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1">
+      <c r="A1240" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1">
+      <c r="A1241" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1">
+      <c r="A1242" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1">
+      <c r="A1243" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1">
+      <c r="A1244" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1">
+      <c r="A1245" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1">
+      <c r="A1246" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1">
+      <c r="A1247" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1">
+      <c r="A1248" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1">
+      <c r="A1249" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1">
+      <c r="A1250" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1">
+      <c r="A1252" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1">
+      <c r="A1253" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1">
+      <c r="A1255" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1">
+      <c r="A1256" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1">
+      <c r="A1257" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1">
+      <c r="A1258" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1">
+      <c r="A1259" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1">
+      <c r="A1260" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1">
+      <c r="A1262" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1">
+      <c r="A1263" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1">
+      <c r="A1264" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1">
+      <c r="A1277" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1">
+      <c r="A1281" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1">
+      <c r="A1282" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1">
+      <c r="A1283" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1">
+      <c r="A1285" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1">
+      <c r="A1286" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9340" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9479" uniqueCount="1275">
   <si>
     <t>ЧИСЛО РЕСПОНДЕНТОВ</t>
   </si>
@@ -3425,6 +3425,423 @@
   </si>
   <si>
     <t>075-085%: 006 (004.9%)</t>
+  </si>
+  <si>
+    <t>ФАКТОРНЫЙ АНАЛИЗ</t>
+  </si>
+  <si>
+    <t>Фактор #1</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости по телевидению, так как считаю, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости в социальных сетях, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости в мессенджерах, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости на новостных сайтах, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь не смотреть новости в интернете в целом, так как мне кажется, что там много недостоверных новостей</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди младше 17 очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 17-20 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 21-30 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 31-40 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 41-50 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей в будущем будет увеличиваться</t>
+  </si>
+  <si>
+    <t>Недостоверных новостей будет становиться все больше, так как еще больше будет развиваться интернет, социальные сети</t>
+  </si>
+  <si>
+    <t>Из-за того, что сейчас много фейковых новостей, я стараюсь в целом меньше интересоваться новостями</t>
+  </si>
+  <si>
+    <t>Фейковые новости вызывают у меня раздражение</t>
+  </si>
+  <si>
+    <t>Фейковые новости меня расстраивают</t>
+  </si>
+  <si>
+    <t>У меня нейтральное отношение к теме фейковых новостей/меня не волнует тема фейковых новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь с юмором относиться к тому, что существуют фейковые новости</t>
+  </si>
+  <si>
+    <t>Фейковые новости волнуют меня только тогда, когда это касается меня</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей полезно для развития критического мышления, навыка анализировать информацию</t>
+  </si>
+  <si>
+    <t>Исправить ситуацию наличия фейковых новостей невозможно, нужно просто изменить своё отношение к этой проблеме, чтобы она не влияла на состояние человека</t>
+  </si>
+  <si>
+    <t>В моей жизни бывают ситуации, когда мне нужно отличить достоверную новость от фейковой</t>
+  </si>
+  <si>
+    <t>Чтение фейковых новостей – это вопрос личного выбора каждого человека</t>
+  </si>
+  <si>
+    <t>Фейковые новости – это те же слухи, только в цифровом формате</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом случайной ошибки журналистов, неправильной трактовки событий</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом плохих навыков, некомпетентности журналистов</t>
+  </si>
+  <si>
+    <t>Фейковые новости являются одним из важных инструментов экономики</t>
+  </si>
+  <si>
+    <t>Развитие рыночной экономики и капиталистических отношений в обществе способствует увеличению количества фейковых новостей</t>
+  </si>
+  <si>
+    <t>Существование фейковых новостей – это привычное положение вещей для нашей страны, которое вытекает из нашей истории</t>
+  </si>
+  <si>
+    <t>Существование фейковых новостей естественно для человеческого общества, объясняется природой человека</t>
+  </si>
+  <si>
+    <t>Без фейков не будут существовать многие жанры новостей</t>
+  </si>
+  <si>
+    <t>В российском обществе существует спрос на фейковые новости, поэтому их так много</t>
+  </si>
+  <si>
+    <t>Фейковые новости распространяют люди с низкими моральными принципами</t>
+  </si>
+  <si>
+    <t>Фейковые новости рассылают всем люди с низкой социальной ответственностью, которые не проверяют информацию и не думают о последствиях своих действий</t>
+  </si>
+  <si>
+    <t>Нужно ввести контроль за распространением фейковых новостей со стороны независимых профессиональных организаций</t>
+  </si>
+  <si>
+    <t>Нужно усилить контроль за распространением фейковых новостей со стороны государства</t>
+  </si>
+  <si>
+    <t>Нет способов глобально/масштабно влиять на ситуацию наличия фейковых новостей</t>
+  </si>
+  <si>
+    <t>Увеличение количества фейковых новостей связано с развитием интернета, социальных сетей</t>
+  </si>
+  <si>
+    <t>Человек по своей природе склонен к сотрудничеству</t>
+  </si>
+  <si>
+    <t>Для оценки достоверности новости я проверяю новость в нескольких источниках</t>
+  </si>
+  <si>
+    <t>Репутация автора/ведущего новости является для меня критерием определения достоверности новости</t>
+  </si>
+  <si>
+    <t>Эмоциональное преподнесение новости вызывает у меня сомнения в достоверности этой новости</t>
+  </si>
+  <si>
+    <t>Я перехожу по ссылкам внутри новости, сверяю первичную информацию с более развернутой информацией по ссылке</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнение людей, которые как-то напрямую связаны с событиями из новостей</t>
+  </si>
+  <si>
+    <t>Я обращаюсь к экспертам/информации от экспертов в какой-то области для того, чтобы понять, достоверная ли новость</t>
+  </si>
+  <si>
+    <t>Я редко перепроверяю новость</t>
+  </si>
+  <si>
+    <t>Одним из важных критериев для меня является то, какими словами написана новость, насколько грамотная речь</t>
+  </si>
+  <si>
+    <t>У меня есть конкретный перечень источников новостей, которым я доверяю</t>
+  </si>
+  <si>
+    <t>Наличия ярких, броских, завлекающих заголовков у новостей вызывает у меня скорее сомнение в достоверности этой новости</t>
+  </si>
+  <si>
+    <t>Большое количество рекламы на новостных сайтах вызывают у меня сомнения по поводу достоверности новостей на нем</t>
+  </si>
+  <si>
+    <t>Качество внешнего оформления новостного источника является для меня важным параметром оценки достоверности новостей из этого источника</t>
+  </si>
+  <si>
+    <t>Будущее кажется многообещающим</t>
+  </si>
+  <si>
+    <t>Большинство идеалистов искренни и часто используют на практике то, что исповедуют</t>
+  </si>
+  <si>
+    <t>Большинство людей честно отвечают на опросы общественного мнения</t>
+  </si>
+  <si>
+    <t>belief_mean</t>
+  </si>
+  <si>
+    <t>social_mean</t>
+  </si>
+  <si>
+    <t>inst_mean</t>
+  </si>
+  <si>
+    <t>Фактор #2</t>
+  </si>
+  <si>
+    <t>На федеральных каналах новости часто подаются с определенной позиции для формирования мнения населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На новостных передачах по федеральным каналам часто не договаривают факты </t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуются в тех источниках, которые пользуются популярностью людей</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 51-60 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди старше 60 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент фейковых новостей</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент искажения новостей, частичной недостоверности</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было меньше, чем сейчас</t>
+  </si>
+  <si>
+    <t>Фейковые новости будут становиться все более сложными, качественными и их будет тяжелее определять</t>
+  </si>
+  <si>
+    <t>Фейковые новости были и будут существовать всегда</t>
+  </si>
+  <si>
+    <t>Я легко отделяю достоверные новости от фейковых</t>
+  </si>
+  <si>
+    <t>Фейковые новости несут значительную опасность для общества</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей касается всех людей, потому что это может стать проблемой для каждого человека</t>
+  </si>
+  <si>
+    <t>Чем меньше человек образован, меньше знает, тем больше он будет интересоваться фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Фейковые новости – это злонамеренное искажение фактов, передача ложной информации в новостях</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей неизбежно, так как это важный инструмент политики</t>
+  </si>
+  <si>
+    <t>Фейковые новости необходимы для того, чтобы управлять и манипулировать массами людей</t>
+  </si>
+  <si>
+    <t>Во главе создания и публикации фейковых новостей стоят профессионалы своего дела, умные люди</t>
+  </si>
+  <si>
+    <t>За публикацией и распространением фейковых новостей стоят представители власти</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые хотят привлечь к себе внимание, продвинуть себя, получить популярность</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся иметь больше власти, воздействовать на людей</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся легко заработать деньги</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают для того, чтобы скрыть ужасную правду о каких-то вещах или событиях в нашей стране, так как это может спровоцировать реакцию людей</t>
+  </si>
+  <si>
+    <t>С фейковыми новостями нужно бороться</t>
+  </si>
+  <si>
+    <t>Нужно дать больше свободы журналистам, чтобы они имели больше возможностей проверять информацию, общаться с очевидцами, бывать на месте событий, узнавать правду</t>
+  </si>
+  <si>
+    <t>Основной способ повлиять на ситуацию наличия фейковых новостей – улучшать систему образования, заниматься просвещением людей</t>
+  </si>
+  <si>
+    <t>Если бы люди не ленились проверять информацию, то было бы меньше проблем с фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Основной способ уменьшить количество фейковых новостей– влиять на своих детей, воспитывать их нравственно и обучать критическому мышлению</t>
+  </si>
+  <si>
+    <t>Публикация фейковых новостей связана с системой мотивации журналистов (необходимость «выполнить план», конкуренция, необходимость быстро публиковать новости)</t>
+  </si>
+  <si>
+    <t>Распространение фейковых новостей является способом информационной войны</t>
+  </si>
+  <si>
+    <t>Некоторые говорят, что большинству людей можно доверять. Другие говорят, что следует быть очень осторожным когда имеешь дело с людьми. Что Вы думаете об этом?</t>
+  </si>
+  <si>
+    <t>Можете ли Вы сказать, что большинство людей более склонны помогать другим или более склонны заботиться только о себе?</t>
+  </si>
+  <si>
+    <t>Мне кажется, что никаким новостям нельзя доверять, пока не проверишь</t>
+  </si>
+  <si>
+    <t>Существуют конкретные объективные способы, которые позволяют мне отличить достоверную новость от фейковой</t>
+  </si>
+  <si>
+    <t>Для меня важным критерием является репутация и авторитетность источника новостей</t>
+  </si>
+  <si>
+    <t>Для определения достоверности новости я стремлюсь перейти на первоисточник, официальный источник</t>
+  </si>
+  <si>
+    <t>Я опираюсь на своё собственное представление о ситуации, на то, что я уже знаю об этом, когда я определяю достоверность очередной новости</t>
+  </si>
+  <si>
+    <t>Нейтральность новости, возможность отличить позицию автора от самой новости является важным критерием достоверности</t>
+  </si>
+  <si>
+    <t>Важным критерием достоверности новости является наличие доказательств (ссылок, цитат, фото/видео доказательств)</t>
+  </si>
+  <si>
+    <t>Полнота раскрытия темы в новости является для меня важным критерием достоверности</t>
+  </si>
+  <si>
+    <t>Я интуитивно понимаю, опираясь на здравый смысл, является ли данная новость фейковой или она достоверна</t>
+  </si>
+  <si>
+    <t>Для оценки достоверности новости я заглядываю в комментарии к новости от других людей</t>
+  </si>
+  <si>
+    <t>В обществе возрастает лицемерие</t>
+  </si>
+  <si>
+    <t>Обещаниям родителей обычно можно верить</t>
+  </si>
+  <si>
+    <t>Большинство людей ужаснулись бы, если бы узнали, как искажаются новости, которые публика слышит и видит</t>
+  </si>
+  <si>
+    <t>Самое надежное – это верить, что вопреки тому, что говорят люди, они прежде всего заинтересованы в своем собственном благе</t>
+  </si>
+  <si>
+    <t>Даже имея информацию из газет, радио и телевидения, всё равно очень трудно получить объективное представление о событиях в обществе</t>
+  </si>
+  <si>
+    <t>Если бы мы на самом деле знали о том, что происходит в международной политике, то общество имело бы причины быть более испуганным, чем оно является сейчас</t>
+  </si>
+  <si>
+    <t>В наше конкурентное время каждый должен быть начеку, иначе кто-нибудь может использовать его в своих целях</t>
+  </si>
+  <si>
+    <t>Фактор #3</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Насколько часто вы получаете новостную информацию?</t>
+  </si>
+  <si>
+    <t>Процент фейковых новостей среди всех новостей всегда примерно один и тот же (даже если количество новостей меняется)</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей будет всегда примерно одинаковым</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было больше, чем сейчас</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей в будущем будет уменьшаться</t>
+  </si>
+  <si>
+    <t>В будущем будет уменьшаться количество фейковых новостей, так как люди лучше освоятся с интернетом и их будет тяжелее обмануть</t>
+  </si>
+  <si>
+    <t>Раньше было больше фейковых новостей, так как у людей было меньше возможностей анализировать, проверять информацию</t>
+  </si>
+  <si>
+    <t>Когда-нибудь в будущем от фейковых новостей смогут избавиться</t>
+  </si>
+  <si>
+    <t>Если не будут использоваться фейковые новости как элемент управления людьми, в обществе будет хаос</t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуют и распространяют не очень умные люди</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают те люди, которые не смогли нигде себя профессионально проявить</t>
+  </si>
+  <si>
+    <t>Людям, которые создают фейковые новости, нечем заняться, у них скучная жизнь</t>
+  </si>
+  <si>
+    <t>Создатели фейковых новостей – это обиженные кем-то люди, которые вымещают зло на окружающих людей с помощью фейков</t>
+  </si>
+  <si>
+    <t>Если не уследишь, люди воспользуются твоим преимуществом</t>
+  </si>
+  <si>
+    <t>Никто не намерен брать на себя ответственность за то что с тобой случится, хотя видят к чему ты идешь</t>
+  </si>
+  <si>
+    <t>Я изначально скорее доверяю новостной информации</t>
+  </si>
+  <si>
+    <t>Присутствие новости в популярных источниках информации является для меня одним из критериев достоверности</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнения друзей/близких по поводу новости, чтобы потом сформировать свое собственное мнение</t>
+  </si>
+  <si>
+    <t>Я не смотрю новости из тех источников, которые не входят в перечень источников, которым я уже доверяю</t>
+  </si>
+  <si>
+    <t>Меня привлекают яркие, необычные заголовки у новостей и скорее вызывают доверие</t>
+  </si>
+  <si>
+    <t>Судебная система -это место, где к каждому проявляется беспристрастное отношение</t>
+  </si>
+  <si>
+    <t>Большинство избранных официальных лиц искренни в своих предвыборных обещаниях</t>
+  </si>
+  <si>
+    <t>Результаты многих главных национальных спортивных состязаний тем или иным образом предопределены заранее</t>
+  </si>
+  <si>
+    <t>Можно считать, что большинство людей сделают то, что говорят</t>
+  </si>
+  <si>
+    <t>Большинство продавцов честны в описании продаваемого товара</t>
+  </si>
+  <si>
+    <t>Большинство специалистов по ремонту не будут завышать цену на услуги, обнаружив Вашу некомпетентность</t>
+  </si>
+  <si>
+    <t>Большая доля обращений в страховые компании по поводу выплаты страховки по несчастным случаям является ложной</t>
   </si>
 </sst>
 </file>
@@ -3772,7 +4189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1242"/>
+  <dimension ref="A1:C1381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13277,6 +13694,701 @@
     <row r="1242" spans="1:1">
       <c r="A1242" t="s">
         <v>1081</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1">
+      <c r="A1243" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1">
+      <c r="A1244" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1">
+      <c r="A1245" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1">
+      <c r="A1246" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1">
+      <c r="A1247" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1">
+      <c r="A1248" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1">
+      <c r="A1249" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1">
+      <c r="A1250" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1">
+      <c r="A1252" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1">
+      <c r="A1253" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1">
+      <c r="A1255" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1">
+      <c r="A1256" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1">
+      <c r="A1257" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1">
+      <c r="A1258" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1">
+      <c r="A1259" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1">
+      <c r="A1260" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1">
+      <c r="A1262" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1">
+      <c r="A1263" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1">
+      <c r="A1264" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1">
+      <c r="A1277" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1">
+      <c r="A1281" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1">
+      <c r="A1282" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1">
+      <c r="A1283" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1">
+      <c r="A1285" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1">
+      <c r="A1286" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1">
+      <c r="A1287" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1">
+      <c r="A1288" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1">
+      <c r="A1289" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1">
+      <c r="A1290" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1">
+      <c r="A1291" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1">
+      <c r="A1292" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1">
+      <c r="A1293" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1">
+      <c r="A1294" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1">
+      <c r="A1295" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1">
+      <c r="A1296" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1">
+      <c r="A1297" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1">
+      <c r="A1298" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1">
+      <c r="A1299" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1">
+      <c r="A1300" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1">
+      <c r="A1301" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1">
+      <c r="A1302" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1">
+      <c r="A1303" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1">
+      <c r="A1304" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1">
+      <c r="A1305" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1">
+      <c r="A1306" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1">
+      <c r="A1307" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1">
+      <c r="A1308" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1">
+      <c r="A1309" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1">
+      <c r="A1310" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1">
+      <c r="A1311" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1">
+      <c r="A1312" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1">
+      <c r="A1313" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1">
+      <c r="A1314" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1">
+      <c r="A1315" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1">
+      <c r="A1316" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1">
+      <c r="A1317" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1">
+      <c r="A1318" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1">
+      <c r="A1319" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1">
+      <c r="A1320" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1">
+      <c r="A1321" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1">
+      <c r="A1322" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1">
+      <c r="A1323" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1">
+      <c r="A1324" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1">
+      <c r="A1325" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1">
+      <c r="A1326" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1">
+      <c r="A1327" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1">
+      <c r="A1328" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1">
+      <c r="A1329" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1">
+      <c r="A1330" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1">
+      <c r="A1331" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1">
+      <c r="A1332" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1">
+      <c r="A1333" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1">
+      <c r="A1334" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1">
+      <c r="A1335" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1">
+      <c r="A1336" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1">
+      <c r="A1337" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1">
+      <c r="A1338" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1">
+      <c r="A1339" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1">
+      <c r="A1340" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1">
+      <c r="A1341" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1">
+      <c r="A1342" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1">
+      <c r="A1343" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1">
+      <c r="A1344" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1">
+      <c r="A1345" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1">
+      <c r="A1346" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1">
+      <c r="A1347" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1">
+      <c r="A1348" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1">
+      <c r="A1349" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1">
+      <c r="A1350" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1">
+      <c r="A1351" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1">
+      <c r="A1352" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1">
+      <c r="A1353" s="2" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1">
+      <c r="A1354" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1">
+      <c r="A1355" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1">
+      <c r="A1356" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1">
+      <c r="A1357" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1">
+      <c r="A1358" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1">
+      <c r="A1359" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1">
+      <c r="A1360" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1">
+      <c r="A1361" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1">
+      <c r="A1362" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1">
+      <c r="A1363" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1">
+      <c r="A1364" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1">
+      <c r="A1365" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1">
+      <c r="A1366" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1">
+      <c r="A1367" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1">
+      <c r="A1368" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1">
+      <c r="A1369" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1">
+      <c r="A1370" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1">
+      <c r="A1371" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1">
+      <c r="A1372" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1">
+      <c r="A1373" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1">
+      <c r="A1374" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1">
+      <c r="A1375" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1">
+      <c r="A1376" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1">
+      <c r="A1377" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1">
+      <c r="A1378" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1">
+      <c r="A1379" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1">
+      <c r="A1380" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1">
+      <c r="A1381" t="s">
+        <v>1274</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -3433,6 +3433,9 @@
     <t>Фактор #1</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
@@ -3463,10 +3466,244 @@
     <t>Мне кажется, что люди 21-30 лет очень подвержены доверию фейковым новостям</t>
   </si>
   <si>
+    <t>Мне кажется, что люди 41-50 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди 51-60 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>Процент фейковых новостей среди всех новостей всегда примерно один и тот же (даже если количество новостей меняется)</t>
+  </si>
+  <si>
+    <t>Из-за того, что сейчас много фейковых новостей, я стараюсь в целом меньше интересоваться новостями</t>
+  </si>
+  <si>
+    <t>Фейковые новости вызывают у меня раздражение</t>
+  </si>
+  <si>
+    <t>Фейковые новости меня расстраивают</t>
+  </si>
+  <si>
+    <t>У меня нейтральное отношение к теме фейковых новостей/меня не волнует тема фейковых новостей</t>
+  </si>
+  <si>
+    <t>Я стараюсь с юмором относиться к тому, что существуют фейковые новости</t>
+  </si>
+  <si>
+    <t>Я легко отделяю достоверные новости от фейковых</t>
+  </si>
+  <si>
+    <t>Фейковые новости волнуют меня только тогда, когда это касается меня</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей полезно для развития критического мышления, навыка анализировать информацию</t>
+  </si>
+  <si>
+    <t>Исправить ситуацию наличия фейковых новостей невозможно, нужно просто изменить своё отношение к этой проблеме, чтобы она не влияла на состояние человека</t>
+  </si>
+  <si>
+    <t>В моей жизни бывают ситуации, когда мне нужно отличить достоверную новость от фейковой</t>
+  </si>
+  <si>
+    <t>Чтение фейковых новостей – это вопрос личного выбора каждого человека</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом случайной ошибки журналистов, неправильной трактовки событий</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом плохих навыков, некомпетентности журналистов</t>
+  </si>
+  <si>
+    <t>Фейковые новости являются одним из важных инструментов экономики</t>
+  </si>
+  <si>
+    <t>Развитие рыночной экономики и капиталистических отношений в обществе способствует увеличению количества фейковых новостей</t>
+  </si>
+  <si>
+    <t>Существование фейковых новостей – это привычное положение вещей для нашей страны, которое вытекает из нашей истории</t>
+  </si>
+  <si>
+    <t>Существование фейковых новостей естественно для человеческого общества, объясняется природой человека</t>
+  </si>
+  <si>
+    <t>Без фейков не будут существовать многие жанры новостей</t>
+  </si>
+  <si>
+    <t>В российском обществе существует спрос на фейковые новости, поэтому их так много</t>
+  </si>
+  <si>
+    <t>Нужно ввести контроль за распространением фейковых новостей со стороны независимых профессиональных организаций</t>
+  </si>
+  <si>
+    <t>Нужно усилить контроль за распространением фейковых новостей со стороны государства</t>
+  </si>
+  <si>
+    <t>Нужно дать больше свободы журналистам, чтобы они имели больше возможностей проверять информацию, общаться с очевидцами, бывать на месте событий, узнавать правду</t>
+  </si>
+  <si>
+    <t>Нет способов глобально/масштабно влиять на ситуацию наличия фейковых новостей</t>
+  </si>
+  <si>
+    <t>Человек по своей природе склонен к сотрудничеству</t>
+  </si>
+  <si>
+    <t>Я изначально скорее доверяю новостной информации</t>
+  </si>
+  <si>
+    <t>Существуют конкретные объективные способы, которые позволяют мне отличить достоверную новость от фейковой</t>
+  </si>
+  <si>
+    <t>Репутация автора/ведущего новости является для меня критерием определения достоверности новости</t>
+  </si>
+  <si>
+    <t>Я перехожу по ссылкам внутри новости, сверяю первичную информацию с более развернутой информацией по ссылке</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнения друзей/близких по поводу новости, чтобы потом сформировать свое собственное мнение</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнение людей, которые как-то напрямую связаны с событиями из новостей</t>
+  </si>
+  <si>
+    <t>Я обращаюсь к экспертам/информации от экспертов в какой-то области для того, чтобы понять, достоверная ли новость</t>
+  </si>
+  <si>
+    <t>Для оценки достоверности новости я заглядываю в комментарии к новости от других людей</t>
+  </si>
+  <si>
+    <t>У меня есть конкретный перечень источников новостей, которым я доверяю</t>
+  </si>
+  <si>
+    <t>Большое количество рекламы на новостных сайтах вызывают у меня сомнения по поводу достоверности новостей на нем</t>
+  </si>
+  <si>
+    <t>Качество внешнего оформления новостного источника является для меня важным параметром оценки достоверности новостей из этого источника</t>
+  </si>
+  <si>
+    <t>Судебная система -это место, где к каждому проявляется беспристрастное отношение</t>
+  </si>
+  <si>
+    <t>Будущее кажется многообещающим</t>
+  </si>
+  <si>
+    <t>Если бы мы на самом деле знали о том, что происходит в международной политике, то общество имело бы причины быть более испуганным, чем оно является сейчас</t>
+  </si>
+  <si>
+    <t>Большинство людей честно отвечают на опросы общественного мнения</t>
+  </si>
+  <si>
+    <t>belief_mean</t>
+  </si>
+  <si>
+    <t>social_mean</t>
+  </si>
+  <si>
+    <t>inst_mean</t>
+  </si>
+  <si>
+    <t>Фактор #2</t>
+  </si>
+  <si>
+    <t>Насколько часто вы получаете новостную информацию?</t>
+  </si>
+  <si>
     <t>Мне кажется, что люди 31-40 лет очень подвержены доверию фейковым новостям</t>
   </si>
   <si>
-    <t>Мне кажется, что люди 41-50 лет очень подвержены доверию фейковым новостям</t>
+    <t>Количество фейковых новостей будет всегда примерно одинаковым</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было больше, чем сейчас</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей в будущем будет уменьшаться</t>
+  </si>
+  <si>
+    <t>В будущем будет уменьшаться количество фейковых новостей, так как люди лучше освоятся с интернетом и их будет тяжелее обмануть</t>
+  </si>
+  <si>
+    <t>Раньше было больше фейковых новостей, так как у людей было меньше возможностей анализировать, проверять информацию</t>
+  </si>
+  <si>
+    <t>Когда-нибудь в будущем от фейковых новостей смогут избавиться</t>
+  </si>
+  <si>
+    <t>Если не будут использоваться фейковые новости как элемент управления людьми, в обществе будет хаос</t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуют и распространяют не очень умные люди</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают те люди, которые не смогли нигде себя профессионально проявить</t>
+  </si>
+  <si>
+    <t>Людям, которые создают фейковые новости, нечем заняться, у них скучная жизнь</t>
+  </si>
+  <si>
+    <t>Создатели фейковых новостей – это обиженные кем-то люди, которые вымещают зло на окружающих людей с помощью фейков</t>
+  </si>
+  <si>
+    <t>Если не уследишь, люди воспользуются твоим преимуществом</t>
+  </si>
+  <si>
+    <t>Никто не намерен брать на себя ответственность за то что с тобой случится, хотя видят к чему ты идешь</t>
+  </si>
+  <si>
+    <t>Присутствие новости в популярных источниках информации является для меня одним из критериев достоверности</t>
+  </si>
+  <si>
+    <t>Я редко перепроверяю новость</t>
+  </si>
+  <si>
+    <t>Я не смотрю новости из тех источников, которые не входят в перечень источников, которым я уже доверяю</t>
+  </si>
+  <si>
+    <t>Меня привлекают яркие, необычные заголовки у новостей и скорее вызывают доверие</t>
+  </si>
+  <si>
+    <t>Большинство избранных официальных лиц искренни в своих предвыборных обещаниях</t>
+  </si>
+  <si>
+    <t>Результаты многих главных национальных спортивных состязаний тем или иным образом предопределены заранее</t>
+  </si>
+  <si>
+    <t>Можно считать, что большинство людей сделают то, что говорят</t>
+  </si>
+  <si>
+    <t>Большинство идеалистов искренни и часто используют на практике то, что исповедуют</t>
+  </si>
+  <si>
+    <t>Большинство продавцов честны в описании продаваемого товара</t>
+  </si>
+  <si>
+    <t>Большинство специалистов по ремонту не будут завышать цену на услуги, обнаружив Вашу некомпетентность</t>
+  </si>
+  <si>
+    <t>Большая доля обращений в страховые компании по поводу выплаты страховки по несчастным случаям является ложной</t>
+  </si>
+  <si>
+    <t>Фактор #3</t>
+  </si>
+  <si>
+    <t>На федеральных каналах новости часто подаются с определенной позиции для формирования мнения населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На новостных передачах по федеральным каналам часто не договаривают факты </t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуются в тех источниках, которые пользуются популярностью людей</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди старше 60 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент фейковых новостей</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент искажения новостей, частичной недостоверности</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было меньше, чем сейчас</t>
   </si>
   <si>
     <t>Количество фейковых новостей в будущем будет увеличиваться</t>
@@ -3475,267 +3712,120 @@
     <t>Недостоверных новостей будет становиться все больше, так как еще больше будет развиваться интернет, социальные сети</t>
   </si>
   <si>
-    <t>Из-за того, что сейчас много фейковых новостей, я стараюсь в целом меньше интересоваться новостями</t>
-  </si>
-  <si>
-    <t>Фейковые новости вызывают у меня раздражение</t>
-  </si>
-  <si>
-    <t>Фейковые новости меня расстраивают</t>
-  </si>
-  <si>
-    <t>У меня нейтральное отношение к теме фейковых новостей/меня не волнует тема фейковых новостей</t>
-  </si>
-  <si>
-    <t>Я стараюсь с юмором относиться к тому, что существуют фейковые новости</t>
-  </si>
-  <si>
-    <t>Фейковые новости волнуют меня только тогда, когда это касается меня</t>
-  </si>
-  <si>
-    <t>Наличие фейковых новостей полезно для развития критического мышления, навыка анализировать информацию</t>
-  </si>
-  <si>
-    <t>Исправить ситуацию наличия фейковых новостей невозможно, нужно просто изменить своё отношение к этой проблеме, чтобы она не влияла на состояние человека</t>
-  </si>
-  <si>
-    <t>В моей жизни бывают ситуации, когда мне нужно отличить достоверную новость от фейковой</t>
-  </si>
-  <si>
-    <t>Чтение фейковых новостей – это вопрос личного выбора каждого человека</t>
+    <t>Фейковые новости будут становиться все более сложными, качественными и их будет тяжелее определять</t>
+  </si>
+  <si>
+    <t>Фейковые новости были и будут существовать всегда</t>
+  </si>
+  <si>
+    <t>Фейковые новости несут значительную опасность для общества</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей касается всех людей, потому что это может стать проблемой для каждого человека</t>
+  </si>
+  <si>
+    <t>Чем меньше человек образован, меньше знает, тем больше он будет интересоваться фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Фейковые новости – это злонамеренное искажение фактов, передача ложной информации в новостях</t>
   </si>
   <si>
     <t>Фейковые новости – это те же слухи, только в цифровом формате</t>
   </si>
   <si>
-    <t>Фейковые новости могут быть результатом случайной ошибки журналистов, неправильной трактовки событий</t>
-  </si>
-  <si>
-    <t>Фейковые новости могут быть результатом плохих навыков, некомпетентности журналистов</t>
-  </si>
-  <si>
-    <t>Фейковые новости являются одним из важных инструментов экономики</t>
-  </si>
-  <si>
-    <t>Развитие рыночной экономики и капиталистических отношений в обществе способствует увеличению количества фейковых новостей</t>
-  </si>
-  <si>
-    <t>Существование фейковых новостей – это привычное положение вещей для нашей страны, которое вытекает из нашей истории</t>
-  </si>
-  <si>
-    <t>Существование фейковых новостей естественно для человеческого общества, объясняется природой человека</t>
-  </si>
-  <si>
-    <t>Без фейков не будут существовать многие жанры новостей</t>
-  </si>
-  <si>
-    <t>В российском обществе существует спрос на фейковые новости, поэтому их так много</t>
+    <t>Наличие фейковых новостей неизбежно, так как это важный инструмент политики</t>
+  </si>
+  <si>
+    <t>Фейковые новости необходимы для того, чтобы управлять и манипулировать массами людей</t>
   </si>
   <si>
     <t>Фейковые новости распространяют люди с низкими моральными принципами</t>
   </si>
   <si>
+    <t>Во главе создания и публикации фейковых новостей стоят профессионалы своего дела, умные люди</t>
+  </si>
+  <si>
+    <t>За публикацией и распространением фейковых новостей стоят представители власти</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые хотят привлечь к себе внимание, продвинуть себя, получить популярность</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся иметь больше власти, воздействовать на людей</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся легко заработать деньги</t>
+  </si>
+  <si>
     <t>Фейковые новости рассылают всем люди с низкой социальной ответственностью, которые не проверяют информацию и не думают о последствиях своих действий</t>
   </si>
   <si>
-    <t>Нужно ввести контроль за распространением фейковых новостей со стороны независимых профессиональных организаций</t>
-  </si>
-  <si>
-    <t>Нужно усилить контроль за распространением фейковых новостей со стороны государства</t>
-  </si>
-  <si>
-    <t>Нет способов глобально/масштабно влиять на ситуацию наличия фейковых новостей</t>
+    <t>Фейковые новости создают для того, чтобы скрыть ужасную правду о каких-то вещах или событиях в нашей стране, так как это может спровоцировать реакцию людей</t>
+  </si>
+  <si>
+    <t>С фейковыми новостями нужно бороться</t>
+  </si>
+  <si>
+    <t>Основной способ повлиять на ситуацию наличия фейковых новостей – улучшать систему образования, заниматься просвещением людей</t>
+  </si>
+  <si>
+    <t>Если бы люди не ленились проверять информацию, то было бы меньше проблем с фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Основной способ уменьшить количество фейковых новостей– влиять на своих детей, воспитывать их нравственно и обучать критическому мышлению</t>
   </si>
   <si>
     <t>Увеличение количества фейковых новостей связано с развитием интернета, социальных сетей</t>
   </si>
   <si>
-    <t>Человек по своей природе склонен к сотрудничеству</t>
+    <t>Публикация фейковых новостей связана с системой мотивации журналистов (необходимость «выполнить план», конкуренция, необходимость быстро публиковать новости)</t>
+  </si>
+  <si>
+    <t>Распространение фейковых новостей является способом информационной войны</t>
+  </si>
+  <si>
+    <t>Некоторые говорят, что большинству людей можно доверять. Другие говорят, что следует быть очень осторожным когда имеешь дело с людьми. Что Вы думаете об этом?</t>
+  </si>
+  <si>
+    <t>Можете ли Вы сказать, что большинство людей более склонны помогать другим или более склонны заботиться только о себе?</t>
+  </si>
+  <si>
+    <t>Мне кажется, что никаким новостям нельзя доверять, пока не проверишь</t>
   </si>
   <si>
     <t>Для оценки достоверности новости я проверяю новость в нескольких источниках</t>
   </si>
   <si>
-    <t>Репутация автора/ведущего новости является для меня критерием определения достоверности новости</t>
+    <t>Для меня важным критерием является репутация и авторитетность источника новостей</t>
+  </si>
+  <si>
+    <t>Для определения достоверности новости я стремлюсь перейти на первоисточник, официальный источник</t>
+  </si>
+  <si>
+    <t>Я опираюсь на своё собственное представление о ситуации, на то, что я уже знаю об этом, когда я определяю достоверность очередной новости</t>
+  </si>
+  <si>
+    <t>Нейтральность новости, возможность отличить позицию автора от самой новости является важным критерием достоверности</t>
   </si>
   <si>
     <t>Эмоциональное преподнесение новости вызывает у меня сомнения в достоверности этой новости</t>
   </si>
   <si>
-    <t>Я перехожу по ссылкам внутри новости, сверяю первичную информацию с более развернутой информацией по ссылке</t>
-  </si>
-  <si>
-    <t>Я спрашиваю мнение людей, которые как-то напрямую связаны с событиями из новостей</t>
-  </si>
-  <si>
-    <t>Я обращаюсь к экспертам/информации от экспертов в какой-то области для того, чтобы понять, достоверная ли новость</t>
-  </si>
-  <si>
-    <t>Я редко перепроверяю новость</t>
+    <t>Важным критерием достоверности новости является наличие доказательств (ссылок, цитат, фото/видео доказательств)</t>
+  </si>
+  <si>
+    <t>Полнота раскрытия темы в новости является для меня важным критерием достоверности</t>
+  </si>
+  <si>
+    <t>Я интуитивно понимаю, опираясь на здравый смысл, является ли данная новость фейковой или она достоверна</t>
   </si>
   <si>
     <t>Одним из важных критериев для меня является то, какими словами написана новость, насколько грамотная речь</t>
   </si>
   <si>
-    <t>У меня есть конкретный перечень источников новостей, которым я доверяю</t>
-  </si>
-  <si>
     <t>Наличия ярких, броских, завлекающих заголовков у новостей вызывает у меня скорее сомнение в достоверности этой новости</t>
   </si>
   <si>
-    <t>Большое количество рекламы на новостных сайтах вызывают у меня сомнения по поводу достоверности новостей на нем</t>
-  </si>
-  <si>
-    <t>Качество внешнего оформления новостного источника является для меня важным параметром оценки достоверности новостей из этого источника</t>
-  </si>
-  <si>
-    <t>Будущее кажется многообещающим</t>
-  </si>
-  <si>
-    <t>Большинство идеалистов искренни и часто используют на практике то, что исповедуют</t>
-  </si>
-  <si>
-    <t>Большинство людей честно отвечают на опросы общественного мнения</t>
-  </si>
-  <si>
-    <t>belief_mean</t>
-  </si>
-  <si>
-    <t>social_mean</t>
-  </si>
-  <si>
-    <t>inst_mean</t>
-  </si>
-  <si>
-    <t>Фактор #2</t>
-  </si>
-  <si>
-    <t>На федеральных каналах новости часто подаются с определенной позиции для формирования мнения населения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На новостных передачах по федеральным каналам часто не договаривают факты </t>
-  </si>
-  <si>
-    <t>Фейковые новости публикуются в тех источниках, которые пользуются популярностью людей</t>
-  </si>
-  <si>
-    <t>Мне кажется, что люди 51-60 лет очень подвержены доверию фейковым новостям</t>
-  </si>
-  <si>
-    <t>Мне кажется, что люди старше 60 лет очень подвержены доверию фейковым новостям</t>
-  </si>
-  <si>
-    <t>В современных российских СМИ и социальных медиа существует большой процент фейковых новостей</t>
-  </si>
-  <si>
-    <t>В современных российских СМИ и социальных медиа существует большой процент искажения новостей, частичной недостоверности</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей раньше было меньше, чем сейчас</t>
-  </si>
-  <si>
-    <t>Фейковые новости будут становиться все более сложными, качественными и их будет тяжелее определять</t>
-  </si>
-  <si>
-    <t>Фейковые новости были и будут существовать всегда</t>
-  </si>
-  <si>
-    <t>Я легко отделяю достоверные новости от фейковых</t>
-  </si>
-  <si>
-    <t>Фейковые новости несут значительную опасность для общества</t>
-  </si>
-  <si>
-    <t>Наличие фейковых новостей касается всех людей, потому что это может стать проблемой для каждого человека</t>
-  </si>
-  <si>
-    <t>Чем меньше человек образован, меньше знает, тем больше он будет интересоваться фейковыми новостями</t>
-  </si>
-  <si>
-    <t>Фейковые новости – это злонамеренное искажение фактов, передача ложной информации в новостях</t>
-  </si>
-  <si>
-    <t>Наличие фейковых новостей неизбежно, так как это важный инструмент политики</t>
-  </si>
-  <si>
-    <t>Фейковые новости необходимы для того, чтобы управлять и манипулировать массами людей</t>
-  </si>
-  <si>
-    <t>Во главе создания и публикации фейковых новостей стоят профессионалы своего дела, умные люди</t>
-  </si>
-  <si>
-    <t>За публикацией и распространением фейковых новостей стоят представители власти</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают люди, которые хотят привлечь к себе внимание, продвинуть себя, получить популярность</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают люди, которые стремятся иметь больше власти, воздействовать на людей</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают люди, которые стремятся легко заработать деньги</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают для того, чтобы скрыть ужасную правду о каких-то вещах или событиях в нашей стране, так как это может спровоцировать реакцию людей</t>
-  </si>
-  <si>
-    <t>С фейковыми новостями нужно бороться</t>
-  </si>
-  <si>
-    <t>Нужно дать больше свободы журналистам, чтобы они имели больше возможностей проверять информацию, общаться с очевидцами, бывать на месте событий, узнавать правду</t>
-  </si>
-  <si>
-    <t>Основной способ повлиять на ситуацию наличия фейковых новостей – улучшать систему образования, заниматься просвещением людей</t>
-  </si>
-  <si>
-    <t>Если бы люди не ленились проверять информацию, то было бы меньше проблем с фейковыми новостями</t>
-  </si>
-  <si>
-    <t>Основной способ уменьшить количество фейковых новостей– влиять на своих детей, воспитывать их нравственно и обучать критическому мышлению</t>
-  </si>
-  <si>
-    <t>Публикация фейковых новостей связана с системой мотивации журналистов (необходимость «выполнить план», конкуренция, необходимость быстро публиковать новости)</t>
-  </si>
-  <si>
-    <t>Распространение фейковых новостей является способом информационной войны</t>
-  </si>
-  <si>
-    <t>Некоторые говорят, что большинству людей можно доверять. Другие говорят, что следует быть очень осторожным когда имеешь дело с людьми. Что Вы думаете об этом?</t>
-  </si>
-  <si>
-    <t>Можете ли Вы сказать, что большинство людей более склонны помогать другим или более склонны заботиться только о себе?</t>
-  </si>
-  <si>
-    <t>Мне кажется, что никаким новостям нельзя доверять, пока не проверишь</t>
-  </si>
-  <si>
-    <t>Существуют конкретные объективные способы, которые позволяют мне отличить достоверную новость от фейковой</t>
-  </si>
-  <si>
-    <t>Для меня важным критерием является репутация и авторитетность источника новостей</t>
-  </si>
-  <si>
-    <t>Для определения достоверности новости я стремлюсь перейти на первоисточник, официальный источник</t>
-  </si>
-  <si>
-    <t>Я опираюсь на своё собственное представление о ситуации, на то, что я уже знаю об этом, когда я определяю достоверность очередной новости</t>
-  </si>
-  <si>
-    <t>Нейтральность новости, возможность отличить позицию автора от самой новости является важным критерием достоверности</t>
-  </si>
-  <si>
-    <t>Важным критерием достоверности новости является наличие доказательств (ссылок, цитат, фото/видео доказательств)</t>
-  </si>
-  <si>
-    <t>Полнота раскрытия темы в новости является для меня важным критерием достоверности</t>
-  </si>
-  <si>
-    <t>Я интуитивно понимаю, опираясь на здравый смысл, является ли данная новость фейковой или она достоверна</t>
-  </si>
-  <si>
-    <t>Для оценки достоверности новости я заглядываю в комментарии к новости от других людей</t>
-  </si>
-  <si>
     <t>В обществе возрастает лицемерие</t>
   </si>
   <si>
@@ -3751,97 +3841,7 @@
     <t>Даже имея информацию из газет, радио и телевидения, всё равно очень трудно получить объективное представление о событиях в обществе</t>
   </si>
   <si>
-    <t>Если бы мы на самом деле знали о том, что происходит в международной политике, то общество имело бы причины быть более испуганным, чем оно является сейчас</t>
-  </si>
-  <si>
     <t>В наше конкурентное время каждый должен быть начеку, иначе кто-нибудь может использовать его в своих целях</t>
-  </si>
-  <si>
-    <t>Фактор #3</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>Насколько часто вы получаете новостную информацию?</t>
-  </si>
-  <si>
-    <t>Процент фейковых новостей среди всех новостей всегда примерно один и тот же (даже если количество новостей меняется)</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей будет всегда примерно одинаковым</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей раньше было больше, чем сейчас</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей в будущем будет уменьшаться</t>
-  </si>
-  <si>
-    <t>В будущем будет уменьшаться количество фейковых новостей, так как люди лучше освоятся с интернетом и их будет тяжелее обмануть</t>
-  </si>
-  <si>
-    <t>Раньше было больше фейковых новостей, так как у людей было меньше возможностей анализировать, проверять информацию</t>
-  </si>
-  <si>
-    <t>Когда-нибудь в будущем от фейковых новостей смогут избавиться</t>
-  </si>
-  <si>
-    <t>Если не будут использоваться фейковые новости как элемент управления людьми, в обществе будет хаос</t>
-  </si>
-  <si>
-    <t>Фейковые новости публикуют и распространяют не очень умные люди</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают те люди, которые не смогли нигде себя профессионально проявить</t>
-  </si>
-  <si>
-    <t>Людям, которые создают фейковые новости, нечем заняться, у них скучная жизнь</t>
-  </si>
-  <si>
-    <t>Создатели фейковых новостей – это обиженные кем-то люди, которые вымещают зло на окружающих людей с помощью фейков</t>
-  </si>
-  <si>
-    <t>Если не уследишь, люди воспользуются твоим преимуществом</t>
-  </si>
-  <si>
-    <t>Никто не намерен брать на себя ответственность за то что с тобой случится, хотя видят к чему ты идешь</t>
-  </si>
-  <si>
-    <t>Я изначально скорее доверяю новостной информации</t>
-  </si>
-  <si>
-    <t>Присутствие новости в популярных источниках информации является для меня одним из критериев достоверности</t>
-  </si>
-  <si>
-    <t>Я спрашиваю мнения друзей/близких по поводу новости, чтобы потом сформировать свое собственное мнение</t>
-  </si>
-  <si>
-    <t>Я не смотрю новости из тех источников, которые не входят в перечень источников, которым я уже доверяю</t>
-  </si>
-  <si>
-    <t>Меня привлекают яркие, необычные заголовки у новостей и скорее вызывают доверие</t>
-  </si>
-  <si>
-    <t>Судебная система -это место, где к каждому проявляется беспристрастное отношение</t>
-  </si>
-  <si>
-    <t>Большинство избранных официальных лиц искренни в своих предвыборных обещаниях</t>
-  </si>
-  <si>
-    <t>Результаты многих главных национальных спортивных состязаний тем или иным образом предопределены заранее</t>
-  </si>
-  <si>
-    <t>Можно считать, что большинство людей сделают то, что говорят</t>
-  </si>
-  <si>
-    <t>Большинство продавцов честны в описании продаваемого товара</t>
-  </si>
-  <si>
-    <t>Большинство специалистов по ремонту не будут завышать цену на услуги, обнаружив Вашу некомпетентность</t>
-  </si>
-  <si>
-    <t>Большая доля обращений в страховые компании по поводу выплаты страховки по несчастным случаям является ложной</t>
   </si>
 </sst>
 </file>
@@ -13987,7 +13987,7 @@
       </c>
     </row>
     <row r="1301" spans="1:1">
-      <c r="A1301" t="s">
+      <c r="A1301" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
     </row>
     <row r="1303" spans="1:1">
-      <c r="A1303" s="2" t="s">
+      <c r="A1303" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14122,7 +14122,7 @@
       </c>
     </row>
     <row r="1328" spans="1:1">
-      <c r="A1328" t="s">
+      <c r="A1328" s="2" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       </c>
     </row>
     <row r="1353" spans="1:1">
-      <c r="A1353" s="2" t="s">
+      <c r="A1353" t="s">
         <v>1246</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -3442,6 +3442,9 @@
     <t>education_level</t>
   </si>
   <si>
+    <t>Насколько часто вы получаете новостную информацию?</t>
+  </si>
+  <si>
     <t>Я стараюсь не смотреть новости по телевидению, так как считаю, что там много недостоверных новостей</t>
   </si>
   <si>
@@ -3466,6 +3469,9 @@
     <t>Мне кажется, что люди 21-30 лет очень подвержены доверию фейковым новостям</t>
   </si>
   <si>
+    <t>Мне кажется, что люди 31-40 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
     <t>Мне кажется, что люди 41-50 лет очень подвержены доверию фейковым новостям</t>
   </si>
   <si>
@@ -3475,6 +3481,12 @@
     <t>Процент фейковых новостей среди всех новостей всегда примерно один и тот же (даже если количество новостей меняется)</t>
   </si>
   <si>
+    <t>Количество фейковых новостей будет всегда примерно одинаковым</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей в будущем будет увеличиваться</t>
+  </si>
+  <si>
     <t>Из-за того, что сейчас много фейковых новостей, я стараюсь в целом меньше интересоваться новостями</t>
   </si>
   <si>
@@ -3496,183 +3508,333 @@
     <t>Фейковые новости волнуют меня только тогда, когда это касается меня</t>
   </si>
   <si>
+    <t>Исправить ситуацию наличия фейковых новостей невозможно, нужно просто изменить своё отношение к этой проблеме, чтобы она не влияла на состояние человека</t>
+  </si>
+  <si>
+    <t>Чтение фейковых новостей – это вопрос личного выбора каждого человека</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом случайной ошибки журналистов, неправильной трактовки событий</t>
+  </si>
+  <si>
+    <t>Фейковые новости могут быть результатом плохих навыков, некомпетентности журналистов</t>
+  </si>
+  <si>
+    <t>Фейковые новости являются одним из важных инструментов экономики</t>
+  </si>
+  <si>
+    <t>Развитие рыночной экономики и капиталистических отношений в обществе способствует увеличению количества фейковых новостей</t>
+  </si>
+  <si>
+    <t>Существование фейковых новостей естественно для человеческого общества, объясняется природой человека</t>
+  </si>
+  <si>
+    <t>Без фейков не будут существовать многие жанры новостей</t>
+  </si>
+  <si>
+    <t>Если не будут использоваться фейковые новости как элемент управления людьми, в обществе будет хаос</t>
+  </si>
+  <si>
+    <t>В российском обществе существует спрос на фейковые новости, поэтому их так много</t>
+  </si>
+  <si>
+    <t>Фейковые новости распространяют люди с низкими моральными принципами</t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуют и распространяют не очень умные люди</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают те люди, которые не смогли нигде себя профессионально проявить</t>
+  </si>
+  <si>
+    <t>Фейковые новости рассылают всем люди с низкой социальной ответственностью, которые не проверяют информацию и не думают о последствиях своих действий</t>
+  </si>
+  <si>
+    <t>Нужно ввести контроль за распространением фейковых новостей со стороны независимых профессиональных организаций</t>
+  </si>
+  <si>
+    <t>Нужно усилить контроль за распространением фейковых новостей со стороны государства</t>
+  </si>
+  <si>
+    <t>Нет способов глобально/масштабно влиять на ситуацию наличия фейковых новостей</t>
+  </si>
+  <si>
+    <t>Увеличение количества фейковых новостей связано с развитием интернета, социальных сетей</t>
+  </si>
+  <si>
+    <t>Мне кажется, что никаким новостям нельзя доверять, пока не проверишь</t>
+  </si>
+  <si>
+    <t>Существуют конкретные объективные способы, которые позволяют мне отличить достоверную новость от фейковой</t>
+  </si>
+  <si>
+    <t>Для оценки достоверности новости я проверяю новость в нескольких источниках</t>
+  </si>
+  <si>
+    <t>Репутация автора/ведущего новости является для меня критерием определения достоверности новости</t>
+  </si>
+  <si>
+    <t>Эмоциональное преподнесение новости вызывает у меня сомнения в достоверности этой новости</t>
+  </si>
+  <si>
+    <t>Я перехожу по ссылкам внутри новости, сверяю первичную информацию с более развернутой информацией по ссылке</t>
+  </si>
+  <si>
+    <t>Присутствие новости в популярных источниках информации является для меня одним из критериев достоверности</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнения друзей/близких по поводу новости, чтобы потом сформировать свое собственное мнение</t>
+  </si>
+  <si>
+    <t>Я спрашиваю мнение людей, которые как-то напрямую связаны с событиями из новостей</t>
+  </si>
+  <si>
+    <t>Я обращаюсь к экспертам/информации от экспертов в какой-то области для того, чтобы понять, достоверная ли новость</t>
+  </si>
+  <si>
+    <t>Я редко перепроверяю новость</t>
+  </si>
+  <si>
+    <t>Для оценки достоверности новости я заглядываю в комментарии к новости от других людей</t>
+  </si>
+  <si>
+    <t>У меня есть конкретный перечень источников новостей, которым я доверяю</t>
+  </si>
+  <si>
+    <t>Я не смотрю новости из тех источников, которые не входят в перечень источников, которым я уже доверяю</t>
+  </si>
+  <si>
+    <t>Наличия ярких, броских, завлекающих заголовков у новостей вызывает у меня скорее сомнение в достоверности этой новости</t>
+  </si>
+  <si>
+    <t>Большое количество рекламы на новостных сайтах вызывают у меня сомнения по поводу достоверности новостей на нем</t>
+  </si>
+  <si>
+    <t>Качество внешнего оформления новостного источника является для меня важным параметром оценки достоверности новостей из этого источника</t>
+  </si>
+  <si>
+    <t>Судебная система -это место, где к каждому проявляется беспристрастное отношение</t>
+  </si>
+  <si>
+    <t>Результаты многих главных национальных спортивных состязаний тем или иным образом предопределены заранее</t>
+  </si>
+  <si>
+    <t>belief_mean</t>
+  </si>
+  <si>
+    <t>social_mean</t>
+  </si>
+  <si>
+    <t>inst_mean</t>
+  </si>
+  <si>
+    <t>Фактор #2</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было больше, чем сейчас</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей в будущем будет уменьшаться</t>
+  </si>
+  <si>
+    <t>В будущем будет уменьшаться количество фейковых новостей, так как люди лучше освоятся с интернетом и их будет тяжелее обмануть</t>
+  </si>
+  <si>
+    <t>Раньше было больше фейковых новостей, так как у людей было меньше возможностей анализировать, проверять информацию</t>
+  </si>
+  <si>
+    <t>Когда-нибудь в будущем от фейковых новостей смогут избавиться</t>
+  </si>
+  <si>
+    <t>Людям, которые создают фейковые новости, нечем заняться, у них скучная жизнь</t>
+  </si>
+  <si>
+    <t>Создатели фейковых новостей – это обиженные кем-то люди, которые вымещают зло на окружающих людей с помощью фейков</t>
+  </si>
+  <si>
+    <t>Если не уследишь, люди воспользуются твоим преимуществом</t>
+  </si>
+  <si>
+    <t>Никто не намерен брать на себя ответственность за то что с тобой случится, хотя видят к чему ты идешь</t>
+  </si>
+  <si>
+    <t>Человек по своей природе склонен к сотрудничеству</t>
+  </si>
+  <si>
+    <t>Меня привлекают яркие, необычные заголовки у новостей и скорее вызывают доверие</t>
+  </si>
+  <si>
+    <t>В обществе возрастает лицемерие</t>
+  </si>
+  <si>
+    <t>Обещаниям родителей обычно можно верить</t>
+  </si>
+  <si>
+    <t>Большинство людей ужаснулись бы, если бы узнали, как искажаются новости, которые публика слышит и видит</t>
+  </si>
+  <si>
+    <t>Самое надежное – это верить, что вопреки тому, что говорят люди, они прежде всего заинтересованы в своем собственном благе</t>
+  </si>
+  <si>
+    <t>Даже имея информацию из газет, радио и телевидения, всё равно очень трудно получить объективное представление о событиях в обществе</t>
+  </si>
+  <si>
+    <t>Будущее кажется многообещающим</t>
+  </si>
+  <si>
+    <t>Если бы мы на самом деле знали о том, что происходит в международной политике, то общество имело бы причины быть более испуганным, чем оно является сейчас</t>
+  </si>
+  <si>
+    <t>В наше конкурентное время каждый должен быть начеку, иначе кто-нибудь может использовать его в своих целях</t>
+  </si>
+  <si>
+    <t>Большинство идеалистов искренни и часто используют на практике то, что исповедуют</t>
+  </si>
+  <si>
+    <t>Большинство людей честно отвечают на опросы общественного мнения</t>
+  </si>
+  <si>
+    <t>Фактор #3</t>
+  </si>
+  <si>
+    <t>На федеральных каналах новости часто подаются с определенной позиции для формирования мнения населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На новостных передачах по федеральным каналам часто не договаривают факты </t>
+  </si>
+  <si>
+    <t>Фейковые новости публикуются в тех источниках, которые пользуются популярностью людей</t>
+  </si>
+  <si>
+    <t>Мне кажется, что люди старше 60 лет очень подвержены доверию фейковым новостям</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент фейковых новостей</t>
+  </si>
+  <si>
+    <t>В современных российских СМИ и социальных медиа существует большой процент искажения новостей, частичной недостоверности</t>
+  </si>
+  <si>
+    <t>Количество фейковых новостей раньше было меньше, чем сейчас</t>
+  </si>
+  <si>
+    <t>Недостоверных новостей будет становиться все больше, так как еще больше будет развиваться интернет, социальные сети</t>
+  </si>
+  <si>
+    <t>Фейковые новости будут становиться все более сложными, качественными и их будет тяжелее определять</t>
+  </si>
+  <si>
+    <t>Фейковые новости были и будут существовать всегда</t>
+  </si>
+  <si>
+    <t>Фейковые новости несут значительную опасность для общества</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей касается всех людей, потому что это может стать проблемой для каждого человека</t>
+  </si>
+  <si>
     <t>Наличие фейковых новостей полезно для развития критического мышления, навыка анализировать информацию</t>
   </si>
   <si>
-    <t>Исправить ситуацию наличия фейковых новостей невозможно, нужно просто изменить своё отношение к этой проблеме, чтобы она не влияла на состояние человека</t>
-  </si>
-  <si>
     <t>В моей жизни бывают ситуации, когда мне нужно отличить достоверную новость от фейковой</t>
   </si>
   <si>
-    <t>Чтение фейковых новостей – это вопрос личного выбора каждого человека</t>
-  </si>
-  <si>
-    <t>Фейковые новости могут быть результатом случайной ошибки журналистов, неправильной трактовки событий</t>
-  </si>
-  <si>
-    <t>Фейковые новости могут быть результатом плохих навыков, некомпетентности журналистов</t>
-  </si>
-  <si>
-    <t>Фейковые новости являются одним из важных инструментов экономики</t>
-  </si>
-  <si>
-    <t>Развитие рыночной экономики и капиталистических отношений в обществе способствует увеличению количества фейковых новостей</t>
+    <t>Чем меньше человек образован, меньше знает, тем больше он будет интересоваться фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Фейковые новости – это злонамеренное искажение фактов, передача ложной информации в новостях</t>
+  </si>
+  <si>
+    <t>Фейковые новости – это те же слухи, только в цифровом формате</t>
+  </si>
+  <si>
+    <t>Наличие фейковых новостей неизбежно, так как это важный инструмент политики</t>
   </si>
   <si>
     <t>Существование фейковых новостей – это привычное положение вещей для нашей страны, которое вытекает из нашей истории</t>
   </si>
   <si>
-    <t>Существование фейковых новостей естественно для человеческого общества, объясняется природой человека</t>
-  </si>
-  <si>
-    <t>Без фейков не будут существовать многие жанры новостей</t>
-  </si>
-  <si>
-    <t>В российском обществе существует спрос на фейковые новости, поэтому их так много</t>
-  </si>
-  <si>
-    <t>Нужно ввести контроль за распространением фейковых новостей со стороны независимых профессиональных организаций</t>
-  </si>
-  <si>
-    <t>Нужно усилить контроль за распространением фейковых новостей со стороны государства</t>
+    <t>Фейковые новости необходимы для того, чтобы управлять и манипулировать массами людей</t>
+  </si>
+  <si>
+    <t>Во главе создания и публикации фейковых новостей стоят профессионалы своего дела, умные люди</t>
+  </si>
+  <si>
+    <t>За публикацией и распространением фейковых новостей стоят представители власти</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые хотят привлечь к себе внимание, продвинуть себя, получить популярность</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся иметь больше власти, воздействовать на людей</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают люди, которые стремятся легко заработать деньги</t>
+  </si>
+  <si>
+    <t>Фейковые новости создают для того, чтобы скрыть ужасную правду о каких-то вещах или событиях в нашей стране, так как это может спровоцировать реакцию людей</t>
+  </si>
+  <si>
+    <t>С фейковыми новостями нужно бороться</t>
   </si>
   <si>
     <t>Нужно дать больше свободы журналистам, чтобы они имели больше возможностей проверять информацию, общаться с очевидцами, бывать на месте событий, узнавать правду</t>
   </si>
   <si>
-    <t>Нет способов глобально/масштабно влиять на ситуацию наличия фейковых новостей</t>
-  </si>
-  <si>
-    <t>Человек по своей природе склонен к сотрудничеству</t>
+    <t>Основной способ повлиять на ситуацию наличия фейковых новостей – улучшать систему образования, заниматься просвещением людей</t>
+  </si>
+  <si>
+    <t>Если бы люди не ленились проверять информацию, то было бы меньше проблем с фейковыми новостями</t>
+  </si>
+  <si>
+    <t>Основной способ уменьшить количество фейковых новостей– влиять на своих детей, воспитывать их нравственно и обучать критическому мышлению</t>
+  </si>
+  <si>
+    <t>Публикация фейковых новостей связана с системой мотивации журналистов (необходимость «выполнить план», конкуренция, необходимость быстро публиковать новости)</t>
+  </si>
+  <si>
+    <t>Распространение фейковых новостей является способом информационной войны</t>
+  </si>
+  <si>
+    <t>Некоторые говорят, что большинству людей можно доверять. Другие говорят, что следует быть очень осторожным когда имеешь дело с людьми. Что Вы думаете об этом?</t>
+  </si>
+  <si>
+    <t>Можете ли Вы сказать, что большинство людей более склонны помогать другим или более склонны заботиться только о себе?</t>
   </si>
   <si>
     <t>Я изначально скорее доверяю новостной информации</t>
   </si>
   <si>
-    <t>Существуют конкретные объективные способы, которые позволяют мне отличить достоверную новость от фейковой</t>
-  </si>
-  <si>
-    <t>Репутация автора/ведущего новости является для меня критерием определения достоверности новости</t>
-  </si>
-  <si>
-    <t>Я перехожу по ссылкам внутри новости, сверяю первичную информацию с более развернутой информацией по ссылке</t>
-  </si>
-  <si>
-    <t>Я спрашиваю мнения друзей/близких по поводу новости, чтобы потом сформировать свое собственное мнение</t>
-  </si>
-  <si>
-    <t>Я спрашиваю мнение людей, которые как-то напрямую связаны с событиями из новостей</t>
-  </si>
-  <si>
-    <t>Я обращаюсь к экспертам/информации от экспертов в какой-то области для того, чтобы понять, достоверная ли новость</t>
-  </si>
-  <si>
-    <t>Для оценки достоверности новости я заглядываю в комментарии к новости от других людей</t>
-  </si>
-  <si>
-    <t>У меня есть конкретный перечень источников новостей, которым я доверяю</t>
-  </si>
-  <si>
-    <t>Большое количество рекламы на новостных сайтах вызывают у меня сомнения по поводу достоверности новостей на нем</t>
-  </si>
-  <si>
-    <t>Качество внешнего оформления новостного источника является для меня важным параметром оценки достоверности новостей из этого источника</t>
-  </si>
-  <si>
-    <t>Судебная система -это место, где к каждому проявляется беспристрастное отношение</t>
-  </si>
-  <si>
-    <t>Будущее кажется многообещающим</t>
-  </si>
-  <si>
-    <t>Если бы мы на самом деле знали о том, что происходит в международной политике, то общество имело бы причины быть более испуганным, чем оно является сейчас</t>
-  </si>
-  <si>
-    <t>Большинство людей честно отвечают на опросы общественного мнения</t>
-  </si>
-  <si>
-    <t>belief_mean</t>
-  </si>
-  <si>
-    <t>social_mean</t>
-  </si>
-  <si>
-    <t>inst_mean</t>
-  </si>
-  <si>
-    <t>Фактор #2</t>
-  </si>
-  <si>
-    <t>Насколько часто вы получаете новостную информацию?</t>
-  </si>
-  <si>
-    <t>Мне кажется, что люди 31-40 лет очень подвержены доверию фейковым новостям</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей будет всегда примерно одинаковым</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей раньше было больше, чем сейчас</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей в будущем будет уменьшаться</t>
-  </si>
-  <si>
-    <t>В будущем будет уменьшаться количество фейковых новостей, так как люди лучше освоятся с интернетом и их будет тяжелее обмануть</t>
-  </si>
-  <si>
-    <t>Раньше было больше фейковых новостей, так как у людей было меньше возможностей анализировать, проверять информацию</t>
-  </si>
-  <si>
-    <t>Когда-нибудь в будущем от фейковых новостей смогут избавиться</t>
-  </si>
-  <si>
-    <t>Если не будут использоваться фейковые новости как элемент управления людьми, в обществе будет хаос</t>
-  </si>
-  <si>
-    <t>Фейковые новости публикуют и распространяют не очень умные люди</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают те люди, которые не смогли нигде себя профессионально проявить</t>
-  </si>
-  <si>
-    <t>Людям, которые создают фейковые новости, нечем заняться, у них скучная жизнь</t>
-  </si>
-  <si>
-    <t>Создатели фейковых новостей – это обиженные кем-то люди, которые вымещают зло на окружающих людей с помощью фейков</t>
-  </si>
-  <si>
-    <t>Если не уследишь, люди воспользуются твоим преимуществом</t>
-  </si>
-  <si>
-    <t>Никто не намерен брать на себя ответственность за то что с тобой случится, хотя видят к чему ты идешь</t>
-  </si>
-  <si>
-    <t>Присутствие новости в популярных источниках информации является для меня одним из критериев достоверности</t>
-  </si>
-  <si>
-    <t>Я редко перепроверяю новость</t>
-  </si>
-  <si>
-    <t>Я не смотрю новости из тех источников, которые не входят в перечень источников, которым я уже доверяю</t>
-  </si>
-  <si>
-    <t>Меня привлекают яркие, необычные заголовки у новостей и скорее вызывают доверие</t>
+    <t>Для меня важным критерием является репутация и авторитетность источника новостей</t>
+  </si>
+  <si>
+    <t>Для определения достоверности новости я стремлюсь перейти на первоисточник, официальный источник</t>
+  </si>
+  <si>
+    <t>Я опираюсь на своё собственное представление о ситуации, на то, что я уже знаю об этом, когда я определяю достоверность очередной новости</t>
+  </si>
+  <si>
+    <t>Нейтральность новости, возможность отличить позицию автора от самой новости является важным критерием достоверности</t>
+  </si>
+  <si>
+    <t>Важным критерием достоверности новости является наличие доказательств (ссылок, цитат, фото/видео доказательств)</t>
+  </si>
+  <si>
+    <t>Полнота раскрытия темы в новости является для меня важным критерием достоверности</t>
+  </si>
+  <si>
+    <t>Я интуитивно понимаю, опираясь на здравый смысл, является ли данная новость фейковой или она достоверна</t>
+  </si>
+  <si>
+    <t>Одним из важных критериев для меня является то, какими словами написана новость, насколько грамотная речь</t>
   </si>
   <si>
     <t>Большинство избранных официальных лиц искренни в своих предвыборных обещаниях</t>
   </si>
   <si>
-    <t>Результаты многих главных национальных спортивных состязаний тем или иным образом предопределены заранее</t>
-  </si>
-  <si>
     <t>Можно считать, что большинство людей сделают то, что говорят</t>
   </si>
   <si>
-    <t>Большинство идеалистов искренни и часто используют на практике то, что исповедуют</t>
-  </si>
-  <si>
     <t>Большинство продавцов честны в описании продаваемого товара</t>
   </si>
   <si>
@@ -3680,168 +3842,6 @@
   </si>
   <si>
     <t>Большая доля обращений в страховые компании по поводу выплаты страховки по несчастным случаям является ложной</t>
-  </si>
-  <si>
-    <t>Фактор #3</t>
-  </si>
-  <si>
-    <t>На федеральных каналах новости часто подаются с определенной позиции для формирования мнения населения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На новостных передачах по федеральным каналам часто не договаривают факты </t>
-  </si>
-  <si>
-    <t>Фейковые новости публикуются в тех источниках, которые пользуются популярностью людей</t>
-  </si>
-  <si>
-    <t>Мне кажется, что люди старше 60 лет очень подвержены доверию фейковым новостям</t>
-  </si>
-  <si>
-    <t>В современных российских СМИ и социальных медиа существует большой процент фейковых новостей</t>
-  </si>
-  <si>
-    <t>В современных российских СМИ и социальных медиа существует большой процент искажения новостей, частичной недостоверности</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей раньше было меньше, чем сейчас</t>
-  </si>
-  <si>
-    <t>Количество фейковых новостей в будущем будет увеличиваться</t>
-  </si>
-  <si>
-    <t>Недостоверных новостей будет становиться все больше, так как еще больше будет развиваться интернет, социальные сети</t>
-  </si>
-  <si>
-    <t>Фейковые новости будут становиться все более сложными, качественными и их будет тяжелее определять</t>
-  </si>
-  <si>
-    <t>Фейковые новости были и будут существовать всегда</t>
-  </si>
-  <si>
-    <t>Фейковые новости несут значительную опасность для общества</t>
-  </si>
-  <si>
-    <t>Наличие фейковых новостей касается всех людей, потому что это может стать проблемой для каждого человека</t>
-  </si>
-  <si>
-    <t>Чем меньше человек образован, меньше знает, тем больше он будет интересоваться фейковыми новостями</t>
-  </si>
-  <si>
-    <t>Фейковые новости – это злонамеренное искажение фактов, передача ложной информации в новостях</t>
-  </si>
-  <si>
-    <t>Фейковые новости – это те же слухи, только в цифровом формате</t>
-  </si>
-  <si>
-    <t>Наличие фейковых новостей неизбежно, так как это важный инструмент политики</t>
-  </si>
-  <si>
-    <t>Фейковые новости необходимы для того, чтобы управлять и манипулировать массами людей</t>
-  </si>
-  <si>
-    <t>Фейковые новости распространяют люди с низкими моральными принципами</t>
-  </si>
-  <si>
-    <t>Во главе создания и публикации фейковых новостей стоят профессионалы своего дела, умные люди</t>
-  </si>
-  <si>
-    <t>За публикацией и распространением фейковых новостей стоят представители власти</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают люди, которые хотят привлечь к себе внимание, продвинуть себя, получить популярность</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают люди, которые стремятся иметь больше власти, воздействовать на людей</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают люди, которые стремятся легко заработать деньги</t>
-  </si>
-  <si>
-    <t>Фейковые новости рассылают всем люди с низкой социальной ответственностью, которые не проверяют информацию и не думают о последствиях своих действий</t>
-  </si>
-  <si>
-    <t>Фейковые новости создают для того, чтобы скрыть ужасную правду о каких-то вещах или событиях в нашей стране, так как это может спровоцировать реакцию людей</t>
-  </si>
-  <si>
-    <t>С фейковыми новостями нужно бороться</t>
-  </si>
-  <si>
-    <t>Основной способ повлиять на ситуацию наличия фейковых новостей – улучшать систему образования, заниматься просвещением людей</t>
-  </si>
-  <si>
-    <t>Если бы люди не ленились проверять информацию, то было бы меньше проблем с фейковыми новостями</t>
-  </si>
-  <si>
-    <t>Основной способ уменьшить количество фейковых новостей– влиять на своих детей, воспитывать их нравственно и обучать критическому мышлению</t>
-  </si>
-  <si>
-    <t>Увеличение количества фейковых новостей связано с развитием интернета, социальных сетей</t>
-  </si>
-  <si>
-    <t>Публикация фейковых новостей связана с системой мотивации журналистов (необходимость «выполнить план», конкуренция, необходимость быстро публиковать новости)</t>
-  </si>
-  <si>
-    <t>Распространение фейковых новостей является способом информационной войны</t>
-  </si>
-  <si>
-    <t>Некоторые говорят, что большинству людей можно доверять. Другие говорят, что следует быть очень осторожным когда имеешь дело с людьми. Что Вы думаете об этом?</t>
-  </si>
-  <si>
-    <t>Можете ли Вы сказать, что большинство людей более склонны помогать другим или более склонны заботиться только о себе?</t>
-  </si>
-  <si>
-    <t>Мне кажется, что никаким новостям нельзя доверять, пока не проверишь</t>
-  </si>
-  <si>
-    <t>Для оценки достоверности новости я проверяю новость в нескольких источниках</t>
-  </si>
-  <si>
-    <t>Для меня важным критерием является репутация и авторитетность источника новостей</t>
-  </si>
-  <si>
-    <t>Для определения достоверности новости я стремлюсь перейти на первоисточник, официальный источник</t>
-  </si>
-  <si>
-    <t>Я опираюсь на своё собственное представление о ситуации, на то, что я уже знаю об этом, когда я определяю достоверность очередной новости</t>
-  </si>
-  <si>
-    <t>Нейтральность новости, возможность отличить позицию автора от самой новости является важным критерием достоверности</t>
-  </si>
-  <si>
-    <t>Эмоциональное преподнесение новости вызывает у меня сомнения в достоверности этой новости</t>
-  </si>
-  <si>
-    <t>Важным критерием достоверности новости является наличие доказательств (ссылок, цитат, фото/видео доказательств)</t>
-  </si>
-  <si>
-    <t>Полнота раскрытия темы в новости является для меня важным критерием достоверности</t>
-  </si>
-  <si>
-    <t>Я интуитивно понимаю, опираясь на здравый смысл, является ли данная новость фейковой или она достоверна</t>
-  </si>
-  <si>
-    <t>Одним из важных критериев для меня является то, какими словами написана новость, насколько грамотная речь</t>
-  </si>
-  <si>
-    <t>Наличия ярких, броских, завлекающих заголовков у новостей вызывает у меня скорее сомнение в достоверности этой новости</t>
-  </si>
-  <si>
-    <t>В обществе возрастает лицемерие</t>
-  </si>
-  <si>
-    <t>Обещаниям родителей обычно можно верить</t>
-  </si>
-  <si>
-    <t>Большинство людей ужаснулись бы, если бы узнали, как искажаются новости, которые публика слышит и видит</t>
-  </si>
-  <si>
-    <t>Самое надежное – это верить, что вопреки тому, что говорят люди, они прежде всего заинтересованы в своем собственном благе</t>
-  </si>
-  <si>
-    <t>Даже имея информацию из газет, радио и телевидения, всё равно очень трудно получить объективное представление о событиях в обществе</t>
-  </si>
-  <si>
-    <t>В наше конкурентное время каждый должен быть начеку, иначе кто-нибудь может использовать его в своих целях</t>
   </si>
 </sst>
 </file>
@@ -13987,7 +13987,7 @@
       </c>
     </row>
     <row r="1301" spans="1:1">
-      <c r="A1301" s="2" t="s">
+      <c r="A1301" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       </c>
     </row>
     <row r="1310" spans="1:1">
-      <c r="A1310" t="s">
+      <c r="A1310" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -14122,7 +14122,7 @@
       </c>
     </row>
     <row r="1328" spans="1:1">
-      <c r="A1328" s="2" t="s">
+      <c r="A1328" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -14142,7 +14142,7 @@
       </c>
     </row>
     <row r="1332" spans="1:1">
-      <c r="A1332" t="s">
+      <c r="A1332" s="2" t="s">
         <v>1225</v>
       </c>
     </row>
